--- a/linajes.xlsx
+++ b/linajes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="255">
   <si>
     <t>month_year</t>
   </si>
@@ -757,6 +757,9 @@
     <t>BA.5.2.1</t>
   </si>
   <si>
+    <t>BA.5.3.1</t>
+  </si>
+  <si>
     <t>BA.5.3.2</t>
   </si>
   <si>
@@ -1133,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V500"/>
+  <dimension ref="A1:V501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32495,61 +32498,61 @@
         <v>189</v>
       </c>
       <c r="D462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E462">
         <v>6</v>
       </c>
       <c r="F462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U462">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V462">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="463" spans="1:22">
@@ -32631,61 +32634,61 @@
         <v>202</v>
       </c>
       <c r="D464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="E464">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="F464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="G464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="H464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="I464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="J464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="K464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="L464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="M464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="N464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="O464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="P464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="Q464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="R464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="S464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="T464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="U464">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="V464">
-        <v>384</v>
+        <v>406</v>
       </c>
     </row>
     <row r="465" spans="1:22">
@@ -32835,61 +32838,61 @@
         <v>214</v>
       </c>
       <c r="D467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="E467">
-        <v>805</v>
+        <v>875</v>
       </c>
       <c r="F467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="G467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="H467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="I467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="J467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="K467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="L467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="M467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="N467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="O467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="P467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="Q467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="R467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="S467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="T467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="U467">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="V467">
-        <v>809</v>
+        <v>879</v>
       </c>
     </row>
     <row r="468" spans="1:22">
@@ -32903,61 +32906,61 @@
         <v>217</v>
       </c>
       <c r="D468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="O468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="T468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="U468">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="V468">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="469" spans="1:22">
@@ -32971,61 +32974,61 @@
         <v>234</v>
       </c>
       <c r="D469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U469">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V469">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="470" spans="1:22">
@@ -33039,61 +33042,61 @@
         <v>218</v>
       </c>
       <c r="D470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U470">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V470">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="471" spans="1:22">
@@ -33107,61 +33110,61 @@
         <v>219</v>
       </c>
       <c r="D471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U471">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V471">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="472" spans="1:22">
@@ -33379,61 +33382,61 @@
         <v>225</v>
       </c>
       <c r="D475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U475">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V475">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="476" spans="1:22">
@@ -33651,61 +33654,61 @@
         <v>238</v>
       </c>
       <c r="D479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="O479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="R479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="S479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="T479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="U479">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="V479">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="480" spans="1:22">
@@ -33719,61 +33722,61 @@
         <v>239</v>
       </c>
       <c r="D480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U480">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V480">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="481" spans="1:22">
@@ -33855,61 +33858,61 @@
         <v>241</v>
       </c>
       <c r="D482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V482">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="483" spans="1:22">
@@ -33991,61 +33994,61 @@
         <v>243</v>
       </c>
       <c r="D484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V484">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:22">
@@ -34127,61 +34130,61 @@
         <v>209</v>
       </c>
       <c r="D486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="L486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="M486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="N486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="O486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="P486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="Q486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="S486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="T486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="U486">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="V486">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="487" spans="1:22">
@@ -34195,61 +34198,61 @@
         <v>228</v>
       </c>
       <c r="D487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="E487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="F487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="G487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="H487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="I487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="J487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="K487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="L487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="M487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="N487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="O487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="P487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="Q487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="R487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="S487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="T487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="U487">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="V487">
-        <v>164</v>
+        <v>195</v>
       </c>
     </row>
     <row r="488" spans="1:22">
@@ -34263,61 +34266,61 @@
         <v>244</v>
       </c>
       <c r="D488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="E488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="F488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="G488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="H488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="I488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="J488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="K488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="L488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="M488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="N488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="O488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="P488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="Q488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="R488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="S488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="T488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="U488">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="V488">
-        <v>74</v>
+        <v>110</v>
       </c>
     </row>
     <row r="489" spans="1:22">
@@ -34331,61 +34334,61 @@
         <v>229</v>
       </c>
       <c r="D489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="E489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="F489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="G489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="H489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="I489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="J489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="K489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="L489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="M489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="N489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="O489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="P489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="Q489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="R489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="S489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="T489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="U489">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="V489">
-        <v>215</v>
+        <v>255</v>
       </c>
     </row>
     <row r="490" spans="1:22">
@@ -34399,61 +34402,61 @@
         <v>230</v>
       </c>
       <c r="D490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="E490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="F490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="G490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="H490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="I490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="J490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="K490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="L490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="M490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="N490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="O490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="P490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="Q490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="R490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="S490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="T490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="U490">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="V490">
-        <v>109</v>
+        <v>202</v>
       </c>
     </row>
     <row r="491" spans="1:22">
@@ -34467,61 +34470,61 @@
         <v>245</v>
       </c>
       <c r="D491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U491">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V491">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="492" spans="1:22">
@@ -34535,61 +34538,61 @@
         <v>246</v>
       </c>
       <c r="D492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="O492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="P492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Q492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="R492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="S492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="T492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="U492">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="V492">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="493" spans="1:22">
@@ -34603,61 +34606,61 @@
         <v>247</v>
       </c>
       <c r="D493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V493">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:22">
@@ -34671,61 +34674,61 @@
         <v>248</v>
       </c>
       <c r="D494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="O494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Q494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="R494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="S494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="T494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="U494">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="V494">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:22">
@@ -34739,61 +34742,61 @@
         <v>249</v>
       </c>
       <c r="D495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="K495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="L495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="N495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="O495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="P495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="Q495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="R495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="S495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="T495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="U495">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="V495">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="496" spans="1:22">
@@ -34807,61 +34810,61 @@
         <v>250</v>
       </c>
       <c r="D496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E496">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="J496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="L496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="N496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="O496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="P496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="Q496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="R496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="S496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="T496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="U496">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="V496">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="497" spans="1:22">
@@ -34875,61 +34878,61 @@
         <v>251</v>
       </c>
       <c r="D497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E497">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="J497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="K497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="L497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="M497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="N497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="O497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="P497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="Q497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="R497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="S497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="T497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="U497">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="V497">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="498" spans="1:22">
@@ -34943,61 +34946,61 @@
         <v>252</v>
       </c>
       <c r="D498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V498">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:22">
@@ -35011,61 +35014,61 @@
         <v>253</v>
       </c>
       <c r="D499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V499">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:22">
@@ -35076,63 +35079,131 @@
         <v>49</v>
       </c>
       <c r="C500" t="s">
+        <v>254</v>
+      </c>
+      <c r="D500">
+        <v>3</v>
+      </c>
+      <c r="E500">
+        <v>3</v>
+      </c>
+      <c r="F500">
+        <v>3</v>
+      </c>
+      <c r="G500">
+        <v>3</v>
+      </c>
+      <c r="H500">
+        <v>3</v>
+      </c>
+      <c r="I500">
+        <v>3</v>
+      </c>
+      <c r="J500">
+        <v>3</v>
+      </c>
+      <c r="K500">
+        <v>3</v>
+      </c>
+      <c r="L500">
+        <v>3</v>
+      </c>
+      <c r="M500">
+        <v>3</v>
+      </c>
+      <c r="N500">
+        <v>3</v>
+      </c>
+      <c r="O500">
+        <v>3</v>
+      </c>
+      <c r="P500">
+        <v>3</v>
+      </c>
+      <c r="Q500">
+        <v>3</v>
+      </c>
+      <c r="R500">
+        <v>3</v>
+      </c>
+      <c r="S500">
+        <v>3</v>
+      </c>
+      <c r="T500">
+        <v>3</v>
+      </c>
+      <c r="U500">
+        <v>3</v>
+      </c>
+      <c r="V500">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:22">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501" t="s">
+        <v>49</v>
+      </c>
+      <c r="C501" t="s">
         <v>232</v>
       </c>
-      <c r="D500">
+      <c r="D501">
         <v>14</v>
       </c>
-      <c r="E500">
+      <c r="E501">
         <v>13</v>
       </c>
-      <c r="F500">
+      <c r="F501">
         <v>14</v>
       </c>
-      <c r="G500">
+      <c r="G501">
         <v>14</v>
       </c>
-      <c r="H500">
+      <c r="H501">
         <v>14</v>
       </c>
-      <c r="I500">
+      <c r="I501">
         <v>14</v>
       </c>
-      <c r="J500">
+      <c r="J501">
         <v>14</v>
       </c>
-      <c r="K500">
+      <c r="K501">
         <v>14</v>
       </c>
-      <c r="L500">
+      <c r="L501">
         <v>14</v>
       </c>
-      <c r="M500">
+      <c r="M501">
         <v>14</v>
       </c>
-      <c r="N500">
+      <c r="N501">
         <v>14</v>
       </c>
-      <c r="O500">
+      <c r="O501">
         <v>14</v>
       </c>
-      <c r="P500">
+      <c r="P501">
         <v>14</v>
       </c>
-      <c r="Q500">
+      <c r="Q501">
         <v>14</v>
       </c>
-      <c r="R500">
+      <c r="R501">
         <v>14</v>
       </c>
-      <c r="S500">
+      <c r="S501">
         <v>14</v>
       </c>
-      <c r="T500">
+      <c r="T501">
         <v>14</v>
       </c>
-      <c r="U500">
+      <c r="U501">
         <v>14</v>
       </c>
-      <c r="V500">
+      <c r="V501">
         <v>14</v>
       </c>
     </row>

--- a/linajes.xlsx
+++ b/linajes.xlsx
@@ -32566,61 +32566,61 @@
         <v>196</v>
       </c>
       <c r="D463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V463">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:22">
@@ -32634,61 +32634,61 @@
         <v>202</v>
       </c>
       <c r="D464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E464">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="F464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="G464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="I464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="J464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="K464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="L464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="M464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="N464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="O464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="P464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="Q464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="R464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="S464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="T464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="U464">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="V464">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="465" spans="1:22">
@@ -32838,61 +32838,61 @@
         <v>214</v>
       </c>
       <c r="D467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="E467">
-        <v>875</v>
+        <v>924</v>
       </c>
       <c r="F467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="G467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="H467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="I467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="J467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="K467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="L467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="M467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="N467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="O467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="P467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="Q467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="R467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="S467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="T467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="U467">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="V467">
-        <v>879</v>
+        <v>928</v>
       </c>
     </row>
     <row r="468" spans="1:22">
@@ -32906,61 +32906,61 @@
         <v>217</v>
       </c>
       <c r="D468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U468">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V468">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="469" spans="1:22">
@@ -33110,61 +33110,61 @@
         <v>219</v>
       </c>
       <c r="D471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U471">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V471">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="472" spans="1:22">
@@ -33178,61 +33178,61 @@
         <v>208</v>
       </c>
       <c r="D472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U472">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V472">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="473" spans="1:22">
@@ -33518,61 +33518,61 @@
         <v>237</v>
       </c>
       <c r="D477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V477">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:22">
@@ -33654,61 +33654,61 @@
         <v>238</v>
       </c>
       <c r="D479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="R479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="U479">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="V479">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="480" spans="1:22">
@@ -33722,61 +33722,61 @@
         <v>239</v>
       </c>
       <c r="D480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U480">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V480">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="481" spans="1:22">
@@ -34130,61 +34130,61 @@
         <v>209</v>
       </c>
       <c r="D486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="R486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="S486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="T486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="U486">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="V486">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="487" spans="1:22">
@@ -34198,61 +34198,61 @@
         <v>228</v>
       </c>
       <c r="D487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="I487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="J487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="K487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="L487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="O487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="R487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="S487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="T487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="U487">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="V487">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="488" spans="1:22">
@@ -34266,61 +34266,61 @@
         <v>244</v>
       </c>
       <c r="D488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="E488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="F488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="G488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="H488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="I488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="J488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="K488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="L488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="M488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="N488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="O488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="P488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="Q488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="R488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="S488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="T488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="U488">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="V488">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="489" spans="1:22">
@@ -34334,61 +34334,61 @@
         <v>229</v>
       </c>
       <c r="D489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="E489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="G489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="I489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="J489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="K489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="L489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="N489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="O489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="P489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="Q489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="R489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="S489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="T489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="U489">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="V489">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="490" spans="1:22">
@@ -34402,61 +34402,61 @@
         <v>230</v>
       </c>
       <c r="D490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="E490">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="F490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="G490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="H490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="I490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="J490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="K490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="L490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="M490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="N490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="O490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="P490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="Q490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="R490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="S490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="T490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="U490">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="V490">
-        <v>202</v>
+        <v>238</v>
       </c>
     </row>
     <row r="491" spans="1:22">
@@ -34470,61 +34470,61 @@
         <v>245</v>
       </c>
       <c r="D491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="S491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="T491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="U491">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="V491">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="492" spans="1:22">
@@ -34538,61 +34538,61 @@
         <v>246</v>
       </c>
       <c r="D492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="R492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="S492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="T492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="U492">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="V492">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="493" spans="1:22">
@@ -34742,61 +34742,61 @@
         <v>249</v>
       </c>
       <c r="D495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E495">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="S495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="T495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="U495">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="V495">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="496" spans="1:22">
@@ -34810,61 +34810,61 @@
         <v>250</v>
       </c>
       <c r="D496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="R496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="S496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="T496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="U496">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="V496">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="497" spans="1:22">
@@ -34878,61 +34878,61 @@
         <v>251</v>
       </c>
       <c r="D497">
+        <v>45</v>
+      </c>
+      <c r="E497">
         <v>44</v>
       </c>
-      <c r="E497">
-        <v>43</v>
-      </c>
       <c r="F497">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G497">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H497">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I497">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J497">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K497">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L497">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M497">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N497">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O497">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P497">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q497">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R497">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S497">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T497">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U497">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V497">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="498" spans="1:22">

--- a/linajes.xlsx
+++ b/linajes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="272">
   <si>
     <t>month_year</t>
   </si>
@@ -826,6 +826,9 @@
     <t>BF.1</t>
   </si>
   <si>
+    <t>BF.2</t>
+  </si>
+  <si>
     <t>BF.5</t>
   </si>
 </sst>
@@ -1184,7 +1187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V546"/>
+  <dimension ref="A1:V548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26086,61 +26089,61 @@
         <v>187</v>
       </c>
       <c r="D367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E367">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="I367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="K367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="P367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Q367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="R367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="S367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="T367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="U367">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="V367">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="368" spans="1:22">
@@ -27106,61 +27109,61 @@
         <v>187</v>
       </c>
       <c r="D382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="K382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="P382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Q382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="R382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="S382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="T382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="U382">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="V382">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="383" spans="1:22">
@@ -30506,61 +30509,61 @@
         <v>187</v>
       </c>
       <c r="D432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="U432">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V432">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="433" spans="1:22">
@@ -30846,61 +30849,61 @@
         <v>203</v>
       </c>
       <c r="D437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E437">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="I437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="J437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="N437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="Q437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="R437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="S437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="T437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="U437">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="V437">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="438" spans="1:22">
@@ -31526,61 +31529,61 @@
         <v>209</v>
       </c>
       <c r="D447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U447">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V447">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="448" spans="1:22">
@@ -32750,61 +32753,61 @@
         <v>203</v>
       </c>
       <c r="D465">
+        <v>440</v>
+      </c>
+      <c r="E465">
         <v>438</v>
       </c>
-      <c r="E465">
-        <v>436</v>
-      </c>
       <c r="F465">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G465">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H465">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I465">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J465">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K465">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L465">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M465">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N465">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O465">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P465">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q465">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="R465">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="S465">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="T465">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="U465">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="V465">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="466" spans="1:22">
@@ -32954,61 +32957,61 @@
         <v>215</v>
       </c>
       <c r="D468">
+        <v>1008</v>
+      </c>
+      <c r="E468">
         <v>1004</v>
       </c>
-      <c r="E468">
-        <v>1000</v>
-      </c>
       <c r="F468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="G468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="H468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="I468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="J468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="K468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="L468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="M468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="N468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="O468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="P468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="Q468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="R468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="S468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="T468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="U468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="V468">
-        <v>1004</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="469" spans="1:22">
@@ -34450,61 +34453,61 @@
         <v>245</v>
       </c>
       <c r="D490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E490">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="J490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="O490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="S490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="T490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="U490">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="V490">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="491" spans="1:22">
@@ -34722,61 +34725,61 @@
         <v>231</v>
       </c>
       <c r="D494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E494">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="I494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="J494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="N494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="O494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="P494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="R494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="S494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="T494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="U494">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="V494">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="495" spans="1:22">
@@ -34858,61 +34861,61 @@
         <v>249</v>
       </c>
       <c r="D496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V496">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="497" spans="1:22">
@@ -35266,61 +35269,61 @@
         <v>255</v>
       </c>
       <c r="D502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E502">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U502">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V502">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="503" spans="1:22">
@@ -35742,61 +35745,61 @@
         <v>187</v>
       </c>
       <c r="D509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V509">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="510" spans="1:22">
@@ -35878,61 +35881,61 @@
         <v>203</v>
       </c>
       <c r="D511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E511">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="I511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="J511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="K511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="L511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="M511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="N511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="O511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="P511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="Q511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="R511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="S511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="T511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="U511">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="V511">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="512" spans="1:22">
@@ -35946,61 +35949,61 @@
         <v>215</v>
       </c>
       <c r="D512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="E512">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="F512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="G512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="H512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="I512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="J512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="K512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="L512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="M512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="N512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="O512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="P512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="Q512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="R512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="S512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="T512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="U512">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="V512">
-        <v>201</v>
+        <v>244</v>
       </c>
     </row>
     <row r="513" spans="1:22">
@@ -36014,61 +36017,61 @@
         <v>218</v>
       </c>
       <c r="D513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U513">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="V513">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="514" spans="1:22">
@@ -36082,61 +36085,61 @@
         <v>220</v>
       </c>
       <c r="D514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V514">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:22">
@@ -36419,7 +36422,7 @@
         <v>50</v>
       </c>
       <c r="C519" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D519">
         <v>1</v>
@@ -36487,64 +36490,64 @@
         <v>50</v>
       </c>
       <c r="C520" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:22">
@@ -36555,64 +36558,64 @@
         <v>50</v>
       </c>
       <c r="C521" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V521">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:22">
@@ -36623,64 +36626,64 @@
         <v>50</v>
       </c>
       <c r="C522" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="D522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E522">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U522">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V522">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:22">
@@ -36691,64 +36694,64 @@
         <v>50</v>
       </c>
       <c r="C523" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E523">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="P523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="S523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="U523">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="V523">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="524" spans="1:22">
@@ -36759,64 +36762,64 @@
         <v>50</v>
       </c>
       <c r="C524" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="E524">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="F524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="G524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="H524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="I524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="J524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="K524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="L524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="M524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="N524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="O524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="P524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="Q524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="R524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="S524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="T524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="U524">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="V524">
-        <v>282</v>
+        <v>71</v>
       </c>
     </row>
     <row r="525" spans="1:22">
@@ -36827,64 +36830,64 @@
         <v>50</v>
       </c>
       <c r="C525" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="E525">
-        <v>5</v>
+        <v>417</v>
       </c>
       <c r="F525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="G525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="H525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="I525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="J525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="K525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="L525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="M525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="N525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="O525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="P525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="Q525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="R525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="S525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="T525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="U525">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="V525">
-        <v>5</v>
+        <v>422</v>
       </c>
     </row>
     <row r="526" spans="1:22">
@@ -36895,64 +36898,64 @@
         <v>50</v>
       </c>
       <c r="C526" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U526">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V526">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="527" spans="1:22">
@@ -36963,64 +36966,64 @@
         <v>50</v>
       </c>
       <c r="C527" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="K527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="L527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="M527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="N527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="O527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="P527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="Q527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="R527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="S527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="T527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="U527">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="V527">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="528" spans="1:22">
@@ -37031,64 +37034,64 @@
         <v>50</v>
       </c>
       <c r="C528" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="D528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="T528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U528">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="V528">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="529" spans="1:22">
@@ -37099,64 +37102,64 @@
         <v>50</v>
       </c>
       <c r="C529" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="E529">
-        <v>401</v>
+        <v>50</v>
       </c>
       <c r="F529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="G529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="H529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="I529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="J529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="K529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="L529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="M529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="N529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="O529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="P529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="Q529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="R529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="S529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="T529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="U529">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="V529">
-        <v>402</v>
+        <v>50</v>
       </c>
     </row>
     <row r="530" spans="1:22">
@@ -37167,64 +37170,64 @@
         <v>50</v>
       </c>
       <c r="C530" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="D530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="E530">
-        <v>8</v>
+        <v>656</v>
       </c>
       <c r="F530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="G530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="H530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="I530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="J530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="K530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="L530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="M530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="N530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="O530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="P530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="Q530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="R530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="S530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="T530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="U530">
-        <v>8</v>
+        <v>659</v>
       </c>
       <c r="V530">
-        <v>8</v>
+        <v>659</v>
       </c>
     </row>
     <row r="531" spans="1:22">
@@ -37235,64 +37238,64 @@
         <v>50</v>
       </c>
       <c r="C531" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="O531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Q531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="U531">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V531">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="532" spans="1:22">
@@ -37303,64 +37306,64 @@
         <v>50</v>
       </c>
       <c r="C532" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U532">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V532">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:22">
@@ -37371,64 +37374,64 @@
         <v>50</v>
       </c>
       <c r="C533" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U533">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V533">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:22">
@@ -37439,64 +37442,64 @@
         <v>50</v>
       </c>
       <c r="C534" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="F534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="G534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="H534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="I534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="J534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="K534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="L534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="M534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="N534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="O534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="P534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="Q534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="R534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="S534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="T534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="U534">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="V534">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:22">
@@ -37507,64 +37510,64 @@
         <v>50</v>
       </c>
       <c r="C535" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="E535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="F535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="G535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="H535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="I535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="J535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="K535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="L535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="M535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="N535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="O535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="P535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="Q535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="R535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="S535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="T535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="U535">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="V535">
-        <v>94</v>
+        <v>132</v>
       </c>
     </row>
     <row r="536" spans="1:22">
@@ -37575,64 +37578,64 @@
         <v>50</v>
       </c>
       <c r="C536" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="E536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="F536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="G536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="I536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="J536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="K536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="L536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="M536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="N536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="O536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="P536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="Q536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="R536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="S536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="T536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="U536">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="V536">
-        <v>2</v>
+        <v>145</v>
       </c>
     </row>
     <row r="537" spans="1:22">
@@ -37643,64 +37646,64 @@
         <v>50</v>
       </c>
       <c r="C537" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E537">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="K537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="M537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="O537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="P537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="Q537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="R537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="S537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="T537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="U537">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="V537">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:22">
@@ -37711,64 +37714,64 @@
         <v>50</v>
       </c>
       <c r="C538" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="E538">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="F538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="G538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="H538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="I538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="J538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="K538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="L538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="M538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="N538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="O538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="P538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="Q538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="R538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="S538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="T538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="U538">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="V538">
-        <v>170</v>
+        <v>34</v>
       </c>
     </row>
     <row r="539" spans="1:22">
@@ -37779,64 +37782,64 @@
         <v>50</v>
       </c>
       <c r="C539" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="E539">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="F539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="G539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="H539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="I539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="J539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="K539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="L539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="M539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="N539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="O539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="P539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="Q539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="R539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="S539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="T539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="U539">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="V539">
-        <v>17</v>
+        <v>328</v>
       </c>
     </row>
     <row r="540" spans="1:22">
@@ -37847,64 +37850,64 @@
         <v>50</v>
       </c>
       <c r="C540" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="L540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="M540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="N540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="O540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="P540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="Q540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="R540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="S540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="T540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="U540">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="V540">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="541" spans="1:22">
@@ -37915,64 +37918,64 @@
         <v>50</v>
       </c>
       <c r="C541" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="O541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="R541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="S541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="T541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="U541">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="V541">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="542" spans="1:22">
@@ -37983,64 +37986,64 @@
         <v>50</v>
       </c>
       <c r="C542" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E542">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U542">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V542">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="543" spans="1:22">
@@ -38051,64 +38054,64 @@
         <v>50</v>
       </c>
       <c r="C543" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E543">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V543">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:22">
@@ -38119,64 +38122,64 @@
         <v>50</v>
       </c>
       <c r="C544" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="J544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="K544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="L544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="M544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="N544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="O544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="P544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Q544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="R544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="S544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="T544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="U544">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="V544">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:22">
@@ -38187,64 +38190,64 @@
         <v>50</v>
       </c>
       <c r="C545" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U545">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V545">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="546" spans="1:22">
@@ -38255,64 +38258,200 @@
         <v>50</v>
       </c>
       <c r="C546" t="s">
+        <v>255</v>
+      </c>
+      <c r="D546">
+        <v>28</v>
+      </c>
+      <c r="E546">
+        <v>28</v>
+      </c>
+      <c r="F546">
+        <v>28</v>
+      </c>
+      <c r="G546">
+        <v>28</v>
+      </c>
+      <c r="H546">
+        <v>28</v>
+      </c>
+      <c r="I546">
+        <v>28</v>
+      </c>
+      <c r="J546">
+        <v>28</v>
+      </c>
+      <c r="K546">
+        <v>28</v>
+      </c>
+      <c r="L546">
+        <v>28</v>
+      </c>
+      <c r="M546">
+        <v>28</v>
+      </c>
+      <c r="N546">
+        <v>28</v>
+      </c>
+      <c r="O546">
+        <v>28</v>
+      </c>
+      <c r="P546">
+        <v>28</v>
+      </c>
+      <c r="Q546">
+        <v>28</v>
+      </c>
+      <c r="R546">
+        <v>28</v>
+      </c>
+      <c r="S546">
+        <v>28</v>
+      </c>
+      <c r="T546">
+        <v>28</v>
+      </c>
+      <c r="U546">
+        <v>28</v>
+      </c>
+      <c r="V546">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="547" spans="1:22">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547" t="s">
+        <v>50</v>
+      </c>
+      <c r="C547" t="s">
+        <v>256</v>
+      </c>
+      <c r="D547">
+        <v>1</v>
+      </c>
+      <c r="E547">
+        <v>1</v>
+      </c>
+      <c r="F547">
+        <v>1</v>
+      </c>
+      <c r="G547">
+        <v>1</v>
+      </c>
+      <c r="H547">
+        <v>1</v>
+      </c>
+      <c r="I547">
+        <v>1</v>
+      </c>
+      <c r="J547">
+        <v>1</v>
+      </c>
+      <c r="K547">
+        <v>1</v>
+      </c>
+      <c r="L547">
+        <v>1</v>
+      </c>
+      <c r="M547">
+        <v>1</v>
+      </c>
+      <c r="N547">
+        <v>1</v>
+      </c>
+      <c r="O547">
+        <v>1</v>
+      </c>
+      <c r="P547">
+        <v>1</v>
+      </c>
+      <c r="Q547">
+        <v>1</v>
+      </c>
+      <c r="R547">
+        <v>1</v>
+      </c>
+      <c r="S547">
+        <v>1</v>
+      </c>
+      <c r="T547">
+        <v>1</v>
+      </c>
+      <c r="U547">
+        <v>1</v>
+      </c>
+      <c r="V547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:22">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548" t="s">
+        <v>50</v>
+      </c>
+      <c r="C548" t="s">
         <v>257</v>
       </c>
-      <c r="D546">
-        <v>11</v>
-      </c>
-      <c r="E546">
-        <v>11</v>
-      </c>
-      <c r="F546">
-        <v>11</v>
-      </c>
-      <c r="G546">
-        <v>11</v>
-      </c>
-      <c r="H546">
-        <v>11</v>
-      </c>
-      <c r="I546">
-        <v>11</v>
-      </c>
-      <c r="J546">
-        <v>11</v>
-      </c>
-      <c r="K546">
-        <v>11</v>
-      </c>
-      <c r="L546">
-        <v>11</v>
-      </c>
-      <c r="M546">
-        <v>11</v>
-      </c>
-      <c r="N546">
-        <v>11</v>
-      </c>
-      <c r="O546">
-        <v>11</v>
-      </c>
-      <c r="P546">
-        <v>11</v>
-      </c>
-      <c r="Q546">
-        <v>11</v>
-      </c>
-      <c r="R546">
-        <v>11</v>
-      </c>
-      <c r="S546">
-        <v>11</v>
-      </c>
-      <c r="T546">
-        <v>11</v>
-      </c>
-      <c r="U546">
-        <v>11</v>
-      </c>
-      <c r="V546">
-        <v>11</v>
+      <c r="D548">
+        <v>14</v>
+      </c>
+      <c r="E548">
+        <v>14</v>
+      </c>
+      <c r="F548">
+        <v>14</v>
+      </c>
+      <c r="G548">
+        <v>14</v>
+      </c>
+      <c r="H548">
+        <v>14</v>
+      </c>
+      <c r="I548">
+        <v>14</v>
+      </c>
+      <c r="J548">
+        <v>14</v>
+      </c>
+      <c r="K548">
+        <v>14</v>
+      </c>
+      <c r="L548">
+        <v>14</v>
+      </c>
+      <c r="M548">
+        <v>14</v>
+      </c>
+      <c r="N548">
+        <v>14</v>
+      </c>
+      <c r="O548">
+        <v>14</v>
+      </c>
+      <c r="P548">
+        <v>14</v>
+      </c>
+      <c r="Q548">
+        <v>14</v>
+      </c>
+      <c r="R548">
+        <v>14</v>
+      </c>
+      <c r="S548">
+        <v>14</v>
+      </c>
+      <c r="T548">
+        <v>14</v>
+      </c>
+      <c r="U548">
+        <v>14</v>
+      </c>
+      <c r="V548">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/linajes.xlsx
+++ b/linajes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="274">
   <si>
     <t>month_year</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>2022-07</t>
+  </si>
+  <si>
+    <t>2022-08</t>
   </si>
   <si>
     <t>B.1.1</t>
@@ -831,6 +834,9 @@
   <si>
     <t>BF.5</t>
   </si>
+  <si>
+    <t>XW</t>
+  </si>
 </sst>
 </file>
 
@@ -1187,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V548"/>
+  <dimension ref="A1:V554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1266,7 +1272,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1334,7 +1340,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1402,7 +1408,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1470,7 +1476,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1538,7 +1544,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1606,7 +1612,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1674,7 +1680,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1742,7 +1748,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1810,7 +1816,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1878,7 +1884,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1946,7 +1952,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2014,7 +2020,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2082,7 +2088,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2150,7 +2156,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2218,7 +2224,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2286,7 +2292,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2354,7 +2360,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2422,7 +2428,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2490,7 +2496,7 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2558,7 +2564,7 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2626,7 +2632,7 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2694,7 +2700,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2762,7 +2768,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2830,7 +2836,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2898,7 +2904,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2966,7 +2972,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3034,7 +3040,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -3102,7 +3108,7 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3170,7 +3176,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3238,7 +3244,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3306,7 +3312,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3374,7 +3380,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3442,7 +3448,7 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3510,7 +3516,7 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3578,7 +3584,7 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3646,7 +3652,7 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3714,7 +3720,7 @@
         <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3782,7 +3788,7 @@
         <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -3850,7 +3856,7 @@
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -3918,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3986,7 +3992,7 @@
         <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -4054,7 +4060,7 @@
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -4122,7 +4128,7 @@
         <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -4190,7 +4196,7 @@
         <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D45">
         <v>9</v>
@@ -4258,7 +4264,7 @@
         <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4326,7 +4332,7 @@
         <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -4394,7 +4400,7 @@
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -4462,7 +4468,7 @@
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -4530,7 +4536,7 @@
         <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -4598,7 +4604,7 @@
         <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -4666,7 +4672,7 @@
         <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -4734,7 +4740,7 @@
         <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D53">
         <v>16</v>
@@ -4802,7 +4808,7 @@
         <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D54">
         <v>5</v>
@@ -4870,7 +4876,7 @@
         <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -4938,7 +4944,7 @@
         <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -5006,7 +5012,7 @@
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D57">
         <v>9</v>
@@ -5074,7 +5080,7 @@
         <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D58">
         <v>33</v>
@@ -5142,7 +5148,7 @@
         <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D59">
         <v>7</v>
@@ -5210,7 +5216,7 @@
         <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D60">
         <v>19</v>
@@ -5278,7 +5284,7 @@
         <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -5346,7 +5352,7 @@
         <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -5414,7 +5420,7 @@
         <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -5482,7 +5488,7 @@
         <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -5550,7 +5556,7 @@
         <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -5618,7 +5624,7 @@
         <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -5686,7 +5692,7 @@
         <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -5754,7 +5760,7 @@
         <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -5822,7 +5828,7 @@
         <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -5890,7 +5896,7 @@
         <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -5958,7 +5964,7 @@
         <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -6026,7 +6032,7 @@
         <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D72">
         <v>64</v>
@@ -6094,7 +6100,7 @@
         <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -6162,7 +6168,7 @@
         <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D74">
         <v>38</v>
@@ -6230,7 +6236,7 @@
         <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D75">
         <v>9</v>
@@ -6298,7 +6304,7 @@
         <v>34</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -6366,7 +6372,7 @@
         <v>34</v>
       </c>
       <c r="C77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -6434,7 +6440,7 @@
         <v>34</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -6502,7 +6508,7 @@
         <v>34</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -6570,7 +6576,7 @@
         <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D80">
         <v>20</v>
@@ -6638,7 +6644,7 @@
         <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -6706,7 +6712,7 @@
         <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -6774,7 +6780,7 @@
         <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D83">
         <v>4</v>
@@ -6842,7 +6848,7 @@
         <v>34</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -6910,7 +6916,7 @@
         <v>34</v>
       </c>
       <c r="C85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -6978,7 +6984,7 @@
         <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -7046,7 +7052,7 @@
         <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -7114,7 +7120,7 @@
         <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -7182,7 +7188,7 @@
         <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -7250,7 +7256,7 @@
         <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D90">
         <v>237</v>
@@ -7318,7 +7324,7 @@
         <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -7386,7 +7392,7 @@
         <v>34</v>
       </c>
       <c r="C92" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D92">
         <v>48</v>
@@ -7454,7 +7460,7 @@
         <v>34</v>
       </c>
       <c r="C93" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -7522,7 +7528,7 @@
         <v>35</v>
       </c>
       <c r="C94" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -7590,7 +7596,7 @@
         <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D95">
         <v>14</v>
@@ -7658,7 +7664,7 @@
         <v>35</v>
       </c>
       <c r="C96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D96">
         <v>8</v>
@@ -7726,7 +7732,7 @@
         <v>35</v>
       </c>
       <c r="C97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D97">
         <v>14</v>
@@ -7794,7 +7800,7 @@
         <v>35</v>
       </c>
       <c r="C98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D98">
         <v>16</v>
@@ -7862,7 +7868,7 @@
         <v>35</v>
       </c>
       <c r="C99" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D99">
         <v>10</v>
@@ -7930,7 +7936,7 @@
         <v>35</v>
       </c>
       <c r="C100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -7998,7 +8004,7 @@
         <v>35</v>
       </c>
       <c r="C101" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -8066,7 +8072,7 @@
         <v>35</v>
       </c>
       <c r="C102" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -8134,7 +8140,7 @@
         <v>35</v>
       </c>
       <c r="C103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -8202,7 +8208,7 @@
         <v>35</v>
       </c>
       <c r="C104" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -8270,7 +8276,7 @@
         <v>35</v>
       </c>
       <c r="C105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D105">
         <v>640</v>
@@ -8338,7 +8344,7 @@
         <v>35</v>
       </c>
       <c r="C106" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D106">
         <v>117</v>
@@ -8406,7 +8412,7 @@
         <v>35</v>
       </c>
       <c r="C107" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -8474,7 +8480,7 @@
         <v>36</v>
       </c>
       <c r="C108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D108">
         <v>12</v>
@@ -8542,7 +8548,7 @@
         <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -8610,7 +8616,7 @@
         <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -8678,7 +8684,7 @@
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -8746,7 +8752,7 @@
         <v>36</v>
       </c>
       <c r="C112" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -8814,7 +8820,7 @@
         <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -8882,7 +8888,7 @@
         <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -8950,7 +8956,7 @@
         <v>36</v>
       </c>
       <c r="C115" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D115">
         <v>6</v>
@@ -9018,7 +9024,7 @@
         <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -9086,7 +9092,7 @@
         <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D117">
         <v>3</v>
@@ -9154,7 +9160,7 @@
         <v>36</v>
       </c>
       <c r="C118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -9222,7 +9228,7 @@
         <v>36</v>
       </c>
       <c r="C119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D119">
         <v>443</v>
@@ -9290,7 +9296,7 @@
         <v>36</v>
       </c>
       <c r="C120" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D120">
         <v>124</v>
@@ -9358,7 +9364,7 @@
         <v>36</v>
       </c>
       <c r="C121" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -9426,7 +9432,7 @@
         <v>37</v>
       </c>
       <c r="C122" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D122">
         <v>3</v>
@@ -9494,7 +9500,7 @@
         <v>37</v>
       </c>
       <c r="C123" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -9562,7 +9568,7 @@
         <v>37</v>
       </c>
       <c r="C124" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D124">
         <v>15</v>
@@ -9630,7 +9636,7 @@
         <v>37</v>
       </c>
       <c r="C125" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -9698,7 +9704,7 @@
         <v>37</v>
       </c>
       <c r="C126" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D126">
         <v>10</v>
@@ -9766,7 +9772,7 @@
         <v>37</v>
       </c>
       <c r="C127" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D127">
         <v>11</v>
@@ -9834,7 +9840,7 @@
         <v>37</v>
       </c>
       <c r="C128" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -9902,7 +9908,7 @@
         <v>37</v>
       </c>
       <c r="C129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -9970,7 +9976,7 @@
         <v>37</v>
       </c>
       <c r="C130" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -10038,7 +10044,7 @@
         <v>37</v>
       </c>
       <c r="C131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D131">
         <v>953</v>
@@ -10106,7 +10112,7 @@
         <v>37</v>
       </c>
       <c r="C132" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D132">
         <v>245</v>
@@ -10174,7 +10180,7 @@
         <v>38</v>
       </c>
       <c r="C133" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D133">
         <v>11</v>
@@ -10242,7 +10248,7 @@
         <v>38</v>
       </c>
       <c r="C134" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -10310,7 +10316,7 @@
         <v>38</v>
       </c>
       <c r="C135" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -10378,7 +10384,7 @@
         <v>38</v>
       </c>
       <c r="C136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D136">
         <v>7</v>
@@ -10446,7 +10452,7 @@
         <v>38</v>
       </c>
       <c r="C137" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -10514,7 +10520,7 @@
         <v>38</v>
       </c>
       <c r="C138" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -10582,7 +10588,7 @@
         <v>38</v>
       </c>
       <c r="C139" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D139">
         <v>59</v>
@@ -10650,7 +10656,7 @@
         <v>38</v>
       </c>
       <c r="C140" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D140">
         <v>36</v>
@@ -10718,7 +10724,7 @@
         <v>38</v>
       </c>
       <c r="C141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -10786,7 +10792,7 @@
         <v>38</v>
       </c>
       <c r="C142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D142">
         <v>689</v>
@@ -10854,7 +10860,7 @@
         <v>38</v>
       </c>
       <c r="C143" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D143">
         <v>6</v>
@@ -10922,7 +10928,7 @@
         <v>38</v>
       </c>
       <c r="C144" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D144">
         <v>288</v>
@@ -10990,7 +10996,7 @@
         <v>38</v>
       </c>
       <c r="C145" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -11058,7 +11064,7 @@
         <v>38</v>
       </c>
       <c r="C146" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D146">
         <v>26</v>
@@ -11126,7 +11132,7 @@
         <v>38</v>
       </c>
       <c r="C147" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D147">
         <v>32</v>
@@ -11194,7 +11200,7 @@
         <v>39</v>
       </c>
       <c r="C148" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D148">
         <v>3</v>
@@ -11262,7 +11268,7 @@
         <v>39</v>
       </c>
       <c r="C149" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -11330,7 +11336,7 @@
         <v>39</v>
       </c>
       <c r="C150" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -11398,7 +11404,7 @@
         <v>39</v>
       </c>
       <c r="C151" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D151">
         <v>84</v>
@@ -11466,7 +11472,7 @@
         <v>39</v>
       </c>
       <c r="C152" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D152">
         <v>10</v>
@@ -11534,7 +11540,7 @@
         <v>39</v>
       </c>
       <c r="C153" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D153">
         <v>10</v>
@@ -11602,7 +11608,7 @@
         <v>39</v>
       </c>
       <c r="C154" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -11670,7 +11676,7 @@
         <v>39</v>
       </c>
       <c r="C155" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D155">
         <v>7</v>
@@ -11738,7 +11744,7 @@
         <v>39</v>
       </c>
       <c r="C156" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -11806,7 +11812,7 @@
         <v>39</v>
       </c>
       <c r="C157" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D157">
         <v>35</v>
@@ -11874,7 +11880,7 @@
         <v>39</v>
       </c>
       <c r="C158" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -11942,7 +11948,7 @@
         <v>39</v>
       </c>
       <c r="C159" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -12010,7 +12016,7 @@
         <v>39</v>
       </c>
       <c r="C160" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -12078,7 +12084,7 @@
         <v>39</v>
       </c>
       <c r="C161" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -12146,7 +12152,7 @@
         <v>39</v>
       </c>
       <c r="C162" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D162">
         <v>2</v>
@@ -12214,7 +12220,7 @@
         <v>39</v>
       </c>
       <c r="C163" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -12282,7 +12288,7 @@
         <v>39</v>
       </c>
       <c r="C164" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D164">
         <v>161</v>
@@ -12350,7 +12356,7 @@
         <v>39</v>
       </c>
       <c r="C165" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D165">
         <v>83</v>
@@ -12418,7 +12424,7 @@
         <v>39</v>
       </c>
       <c r="C166" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -12486,7 +12492,7 @@
         <v>39</v>
       </c>
       <c r="C167" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -12554,7 +12560,7 @@
         <v>39</v>
       </c>
       <c r="C168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D168">
         <v>404</v>
@@ -12622,7 +12628,7 @@
         <v>39</v>
       </c>
       <c r="C169" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D169">
         <v>3</v>
@@ -12690,7 +12696,7 @@
         <v>39</v>
       </c>
       <c r="C170" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -12758,7 +12764,7 @@
         <v>39</v>
       </c>
       <c r="C171" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D171">
         <v>280</v>
@@ -12826,7 +12832,7 @@
         <v>39</v>
       </c>
       <c r="C172" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D172">
         <v>2</v>
@@ -12894,7 +12900,7 @@
         <v>39</v>
       </c>
       <c r="C173" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -12962,7 +12968,7 @@
         <v>39</v>
       </c>
       <c r="C174" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D174">
         <v>120</v>
@@ -13030,7 +13036,7 @@
         <v>39</v>
       </c>
       <c r="C175" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D175">
         <v>22</v>
@@ -13098,7 +13104,7 @@
         <v>40</v>
       </c>
       <c r="C176" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D176">
         <v>7</v>
@@ -13166,7 +13172,7 @@
         <v>40</v>
       </c>
       <c r="C177" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D177">
         <v>21</v>
@@ -13234,7 +13240,7 @@
         <v>40</v>
       </c>
       <c r="C178" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D178">
         <v>2</v>
@@ -13302,7 +13308,7 @@
         <v>40</v>
       </c>
       <c r="C179" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D179">
         <v>31</v>
@@ -13370,7 +13376,7 @@
         <v>40</v>
       </c>
       <c r="C180" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -13438,7 +13444,7 @@
         <v>40</v>
       </c>
       <c r="C181" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -13506,7 +13512,7 @@
         <v>40</v>
       </c>
       <c r="C182" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D182">
         <v>51</v>
@@ -13574,7 +13580,7 @@
         <v>40</v>
       </c>
       <c r="C183" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D183">
         <v>23</v>
@@ -13642,7 +13648,7 @@
         <v>40</v>
       </c>
       <c r="C184" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D184">
         <v>3</v>
@@ -13710,7 +13716,7 @@
         <v>40</v>
       </c>
       <c r="C185" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D185">
         <v>34</v>
@@ -13778,7 +13784,7 @@
         <v>40</v>
       </c>
       <c r="C186" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D186">
         <v>2</v>
@@ -13846,7 +13852,7 @@
         <v>40</v>
       </c>
       <c r="C187" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D187">
         <v>7</v>
@@ -13914,7 +13920,7 @@
         <v>40</v>
       </c>
       <c r="C188" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -13982,7 +13988,7 @@
         <v>40</v>
       </c>
       <c r="C189" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D189">
         <v>7</v>
@@ -14050,7 +14056,7 @@
         <v>40</v>
       </c>
       <c r="C190" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D190">
         <v>257</v>
@@ -14118,7 +14124,7 @@
         <v>40</v>
       </c>
       <c r="C191" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D191">
         <v>13</v>
@@ -14186,7 +14192,7 @@
         <v>40</v>
       </c>
       <c r="C192" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D192">
         <v>12</v>
@@ -14254,7 +14260,7 @@
         <v>40</v>
       </c>
       <c r="C193" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -14322,7 +14328,7 @@
         <v>40</v>
       </c>
       <c r="C194" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D194">
         <v>393</v>
@@ -14390,7 +14396,7 @@
         <v>40</v>
       </c>
       <c r="C195" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D195">
         <v>58</v>
@@ -14458,7 +14464,7 @@
         <v>40</v>
       </c>
       <c r="C196" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D196">
         <v>14</v>
@@ -14526,7 +14532,7 @@
         <v>40</v>
       </c>
       <c r="C197" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D197">
         <v>202</v>
@@ -14594,7 +14600,7 @@
         <v>40</v>
       </c>
       <c r="C198" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D198">
         <v>3</v>
@@ -14662,7 +14668,7 @@
         <v>40</v>
       </c>
       <c r="C199" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D199">
         <v>63</v>
@@ -14730,7 +14736,7 @@
         <v>40</v>
       </c>
       <c r="C200" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D200">
         <v>2</v>
@@ -14798,7 +14804,7 @@
         <v>40</v>
       </c>
       <c r="C201" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -14866,7 +14872,7 @@
         <v>40</v>
       </c>
       <c r="C202" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D202">
         <v>95</v>
@@ -14934,7 +14940,7 @@
         <v>40</v>
       </c>
       <c r="C203" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D203">
         <v>97</v>
@@ -15002,7 +15008,7 @@
         <v>40</v>
       </c>
       <c r="C204" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D204">
         <v>70</v>
@@ -15070,7 +15076,7 @@
         <v>41</v>
       </c>
       <c r="C205" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -15138,7 +15144,7 @@
         <v>41</v>
       </c>
       <c r="C206" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D206">
         <v>17</v>
@@ -15206,7 +15212,7 @@
         <v>41</v>
       </c>
       <c r="C207" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D207">
         <v>6</v>
@@ -15274,7 +15280,7 @@
         <v>41</v>
       </c>
       <c r="C208" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D208">
         <v>63</v>
@@ -15342,7 +15348,7 @@
         <v>41</v>
       </c>
       <c r="C209" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D209">
         <v>4</v>
@@ -15410,7 +15416,7 @@
         <v>41</v>
       </c>
       <c r="C210" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -15478,7 +15484,7 @@
         <v>41</v>
       </c>
       <c r="C211" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D211">
         <v>3</v>
@@ -15546,7 +15552,7 @@
         <v>41</v>
       </c>
       <c r="C212" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -15614,7 +15620,7 @@
         <v>41</v>
       </c>
       <c r="C213" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D213">
         <v>4</v>
@@ -15682,7 +15688,7 @@
         <v>41</v>
       </c>
       <c r="C214" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -15750,7 +15756,7 @@
         <v>41</v>
       </c>
       <c r="C215" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D215">
         <v>23</v>
@@ -15818,7 +15824,7 @@
         <v>41</v>
       </c>
       <c r="C216" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -15886,7 +15892,7 @@
         <v>41</v>
       </c>
       <c r="C217" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -15954,7 +15960,7 @@
         <v>41</v>
       </c>
       <c r="C218" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D218">
         <v>52</v>
@@ -16022,7 +16028,7 @@
         <v>41</v>
       </c>
       <c r="C219" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D219">
         <v>46</v>
@@ -16090,7 +16096,7 @@
         <v>41</v>
       </c>
       <c r="C220" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -16158,7 +16164,7 @@
         <v>41</v>
       </c>
       <c r="C221" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D221">
         <v>39</v>
@@ -16226,7 +16232,7 @@
         <v>41</v>
       </c>
       <c r="C222" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -16294,7 +16300,7 @@
         <v>41</v>
       </c>
       <c r="C223" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D223">
         <v>3</v>
@@ -16362,7 +16368,7 @@
         <v>41</v>
       </c>
       <c r="C224" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -16430,7 +16436,7 @@
         <v>41</v>
       </c>
       <c r="C225" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D225">
         <v>288</v>
@@ -16498,7 +16504,7 @@
         <v>41</v>
       </c>
       <c r="C226" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -16566,7 +16572,7 @@
         <v>41</v>
       </c>
       <c r="C227" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D227">
         <v>62</v>
@@ -16634,7 +16640,7 @@
         <v>41</v>
       </c>
       <c r="C228" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D228">
         <v>65</v>
@@ -16702,7 +16708,7 @@
         <v>41</v>
       </c>
       <c r="C229" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D229">
         <v>2</v>
@@ -16770,7 +16776,7 @@
         <v>41</v>
       </c>
       <c r="C230" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D230">
         <v>153</v>
@@ -16838,7 +16844,7 @@
         <v>41</v>
       </c>
       <c r="C231" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D231">
         <v>9</v>
@@ -16906,7 +16912,7 @@
         <v>41</v>
       </c>
       <c r="C232" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D232">
         <v>3</v>
@@ -16974,7 +16980,7 @@
         <v>41</v>
       </c>
       <c r="C233" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -17042,7 +17048,7 @@
         <v>41</v>
       </c>
       <c r="C234" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D234">
         <v>3</v>
@@ -17110,7 +17116,7 @@
         <v>41</v>
       </c>
       <c r="C235" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D235">
         <v>36</v>
@@ -17178,7 +17184,7 @@
         <v>41</v>
       </c>
       <c r="C236" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D236">
         <v>6</v>
@@ -17246,7 +17252,7 @@
         <v>41</v>
       </c>
       <c r="C237" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D237">
         <v>23</v>
@@ -17314,7 +17320,7 @@
         <v>41</v>
       </c>
       <c r="C238" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D238">
         <v>7</v>
@@ -17382,7 +17388,7 @@
         <v>41</v>
       </c>
       <c r="C239" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D239">
         <v>8</v>
@@ -17450,7 +17456,7 @@
         <v>41</v>
       </c>
       <c r="C240" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D240">
         <v>2</v>
@@ -17518,7 +17524,7 @@
         <v>41</v>
       </c>
       <c r="C241" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D241">
         <v>1</v>
@@ -17586,7 +17592,7 @@
         <v>41</v>
       </c>
       <c r="C242" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D242">
         <v>8</v>
@@ -17654,7 +17660,7 @@
         <v>41</v>
       </c>
       <c r="C243" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D243">
         <v>2</v>
@@ -17722,7 +17728,7 @@
         <v>41</v>
       </c>
       <c r="C244" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -17790,7 +17796,7 @@
         <v>41</v>
       </c>
       <c r="C245" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D245">
         <v>464</v>
@@ -17858,7 +17864,7 @@
         <v>41</v>
       </c>
       <c r="C246" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D246">
         <v>26</v>
@@ -17926,7 +17932,7 @@
         <v>41</v>
       </c>
       <c r="C247" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D247">
         <v>4</v>
@@ -17994,7 +18000,7 @@
         <v>41</v>
       </c>
       <c r="C248" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D248">
         <v>36</v>
@@ -18062,7 +18068,7 @@
         <v>41</v>
       </c>
       <c r="C249" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D249">
         <v>17</v>
@@ -18130,7 +18136,7 @@
         <v>41</v>
       </c>
       <c r="C250" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D250">
         <v>63</v>
@@ -18198,7 +18204,7 @@
         <v>41</v>
       </c>
       <c r="C251" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D251">
         <v>5</v>
@@ -18266,7 +18272,7 @@
         <v>42</v>
       </c>
       <c r="C252" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D252">
         <v>77</v>
@@ -18334,7 +18340,7 @@
         <v>42</v>
       </c>
       <c r="C253" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D253">
         <v>25</v>
@@ -18402,7 +18408,7 @@
         <v>42</v>
       </c>
       <c r="C254" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D254">
         <v>275</v>
@@ -18470,7 +18476,7 @@
         <v>42</v>
       </c>
       <c r="C255" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D255">
         <v>5</v>
@@ -18538,7 +18544,7 @@
         <v>42</v>
       </c>
       <c r="C256" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -18606,7 +18612,7 @@
         <v>42</v>
       </c>
       <c r="C257" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D257">
         <v>13</v>
@@ -18674,7 +18680,7 @@
         <v>42</v>
       </c>
       <c r="C258" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D258">
         <v>5</v>
@@ -18742,7 +18748,7 @@
         <v>42</v>
       </c>
       <c r="C259" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D259">
         <v>88</v>
@@ -18810,7 +18816,7 @@
         <v>42</v>
       </c>
       <c r="C260" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D260">
         <v>6</v>
@@ -18878,7 +18884,7 @@
         <v>42</v>
       </c>
       <c r="C261" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D261">
         <v>2</v>
@@ -18946,7 +18952,7 @@
         <v>42</v>
       </c>
       <c r="C262" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D262">
         <v>217</v>
@@ -19014,7 +19020,7 @@
         <v>42</v>
       </c>
       <c r="C263" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D263">
         <v>24</v>
@@ -19082,7 +19088,7 @@
         <v>42</v>
       </c>
       <c r="C264" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D264">
         <v>73</v>
@@ -19150,7 +19156,7 @@
         <v>42</v>
       </c>
       <c r="C265" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D265">
         <v>4</v>
@@ -19218,7 +19224,7 @@
         <v>42</v>
       </c>
       <c r="C266" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D266">
         <v>25</v>
@@ -19286,7 +19292,7 @@
         <v>42</v>
       </c>
       <c r="C267" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D267">
         <v>35</v>
@@ -19354,7 +19360,7 @@
         <v>42</v>
       </c>
       <c r="C268" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D268">
         <v>14</v>
@@ -19422,7 +19428,7 @@
         <v>42</v>
       </c>
       <c r="C269" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D269">
         <v>15</v>
@@ -19490,7 +19496,7 @@
         <v>42</v>
       </c>
       <c r="C270" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D270">
         <v>8</v>
@@ -19558,7 +19564,7 @@
         <v>42</v>
       </c>
       <c r="C271" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D271">
         <v>2</v>
@@ -19626,7 +19632,7 @@
         <v>42</v>
       </c>
       <c r="C272" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D272">
         <v>44</v>
@@ -19694,7 +19700,7 @@
         <v>42</v>
       </c>
       <c r="C273" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D273">
         <v>354</v>
@@ -19762,7 +19768,7 @@
         <v>42</v>
       </c>
       <c r="C274" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D274">
         <v>2</v>
@@ -19830,7 +19836,7 @@
         <v>42</v>
       </c>
       <c r="C275" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -19898,7 +19904,7 @@
         <v>42</v>
       </c>
       <c r="C276" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D276">
         <v>4</v>
@@ -19966,7 +19972,7 @@
         <v>42</v>
       </c>
       <c r="C277" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D277">
         <v>97</v>
@@ -20034,7 +20040,7 @@
         <v>42</v>
       </c>
       <c r="C278" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D278">
         <v>2</v>
@@ -20102,7 +20108,7 @@
         <v>42</v>
       </c>
       <c r="C279" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D279">
         <v>4</v>
@@ -20170,7 +20176,7 @@
         <v>42</v>
       </c>
       <c r="C280" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D280">
         <v>2</v>
@@ -20238,7 +20244,7 @@
         <v>42</v>
       </c>
       <c r="C281" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D281">
         <v>16</v>
@@ -20306,7 +20312,7 @@
         <v>42</v>
       </c>
       <c r="C282" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D282">
         <v>3</v>
@@ -20374,7 +20380,7 @@
         <v>42</v>
       </c>
       <c r="C283" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -20442,7 +20448,7 @@
         <v>42</v>
       </c>
       <c r="C284" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -20510,7 +20516,7 @@
         <v>42</v>
       </c>
       <c r="C285" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D285">
         <v>28</v>
@@ -20578,7 +20584,7 @@
         <v>42</v>
       </c>
       <c r="C286" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -20646,7 +20652,7 @@
         <v>42</v>
       </c>
       <c r="C287" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D287">
         <v>4</v>
@@ -20714,7 +20720,7 @@
         <v>42</v>
       </c>
       <c r="C288" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -20782,7 +20788,7 @@
         <v>42</v>
       </c>
       <c r="C289" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -20850,7 +20856,7 @@
         <v>42</v>
       </c>
       <c r="C290" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D290">
         <v>2</v>
@@ -20918,7 +20924,7 @@
         <v>42</v>
       </c>
       <c r="C291" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -20986,7 +20992,7 @@
         <v>42</v>
       </c>
       <c r="C292" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D292">
         <v>2</v>
@@ -21054,7 +21060,7 @@
         <v>42</v>
       </c>
       <c r="C293" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D293">
         <v>15</v>
@@ -21122,7 +21128,7 @@
         <v>42</v>
       </c>
       <c r="C294" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D294">
         <v>17</v>
@@ -21190,7 +21196,7 @@
         <v>42</v>
       </c>
       <c r="C295" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D295">
         <v>11</v>
@@ -21258,7 +21264,7 @@
         <v>42</v>
       </c>
       <c r="C296" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -21326,7 +21332,7 @@
         <v>42</v>
       </c>
       <c r="C297" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D297">
         <v>7</v>
@@ -21394,7 +21400,7 @@
         <v>42</v>
       </c>
       <c r="C298" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D298">
         <v>33</v>
@@ -21462,7 +21468,7 @@
         <v>43</v>
       </c>
       <c r="C299" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D299">
         <v>53</v>
@@ -21530,7 +21536,7 @@
         <v>43</v>
       </c>
       <c r="C300" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D300">
         <v>6</v>
@@ -21598,7 +21604,7 @@
         <v>43</v>
       </c>
       <c r="C301" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D301">
         <v>207</v>
@@ -21666,7 +21672,7 @@
         <v>43</v>
       </c>
       <c r="C302" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D302">
         <v>2</v>
@@ -21734,7 +21740,7 @@
         <v>43</v>
       </c>
       <c r="C303" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D303">
         <v>1</v>
@@ -21802,7 +21808,7 @@
         <v>43</v>
       </c>
       <c r="C304" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D304">
         <v>6</v>
@@ -21870,7 +21876,7 @@
         <v>43</v>
       </c>
       <c r="C305" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -21938,7 +21944,7 @@
         <v>43</v>
       </c>
       <c r="C306" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D306">
         <v>2</v>
@@ -22006,7 +22012,7 @@
         <v>43</v>
       </c>
       <c r="C307" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D307">
         <v>3</v>
@@ -22074,7 +22080,7 @@
         <v>43</v>
       </c>
       <c r="C308" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D308">
         <v>173</v>
@@ -22142,7 +22148,7 @@
         <v>43</v>
       </c>
       <c r="C309" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D309">
         <v>6</v>
@@ -22210,7 +22216,7 @@
         <v>43</v>
       </c>
       <c r="C310" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D310">
         <v>206</v>
@@ -22278,7 +22284,7 @@
         <v>43</v>
       </c>
       <c r="C311" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D311">
         <v>4</v>
@@ -22346,7 +22352,7 @@
         <v>43</v>
       </c>
       <c r="C312" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -22414,7 +22420,7 @@
         <v>43</v>
       </c>
       <c r="C313" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D313">
         <v>1</v>
@@ -22482,7 +22488,7 @@
         <v>43</v>
       </c>
       <c r="C314" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D314">
         <v>45</v>
@@ -22550,7 +22556,7 @@
         <v>43</v>
       </c>
       <c r="C315" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -22618,7 +22624,7 @@
         <v>43</v>
       </c>
       <c r="C316" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D316">
         <v>20</v>
@@ -22686,7 +22692,7 @@
         <v>43</v>
       </c>
       <c r="C317" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D317">
         <v>25</v>
@@ -22754,7 +22760,7 @@
         <v>43</v>
       </c>
       <c r="C318" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D318">
         <v>4</v>
@@ -22822,7 +22828,7 @@
         <v>43</v>
       </c>
       <c r="C319" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D319">
         <v>9</v>
@@ -22890,7 +22896,7 @@
         <v>43</v>
       </c>
       <c r="C320" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D320">
         <v>19</v>
@@ -22958,7 +22964,7 @@
         <v>43</v>
       </c>
       <c r="C321" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -23026,7 +23032,7 @@
         <v>43</v>
       </c>
       <c r="C322" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -23094,7 +23100,7 @@
         <v>43</v>
       </c>
       <c r="C323" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D323">
         <v>16</v>
@@ -23162,7 +23168,7 @@
         <v>43</v>
       </c>
       <c r="C324" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D324">
         <v>39</v>
@@ -23230,7 +23236,7 @@
         <v>43</v>
       </c>
       <c r="C325" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D325">
         <v>19</v>
@@ -23298,7 +23304,7 @@
         <v>43</v>
       </c>
       <c r="C326" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -23366,7 +23372,7 @@
         <v>43</v>
       </c>
       <c r="C327" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D327">
         <v>357</v>
@@ -23434,7 +23440,7 @@
         <v>43</v>
       </c>
       <c r="C328" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D328">
         <v>1</v>
@@ -23502,7 +23508,7 @@
         <v>43</v>
       </c>
       <c r="C329" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D329">
         <v>48</v>
@@ -23570,7 +23576,7 @@
         <v>43</v>
       </c>
       <c r="C330" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D330">
         <v>4</v>
@@ -23638,7 +23644,7 @@
         <v>43</v>
       </c>
       <c r="C331" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D331">
         <v>4</v>
@@ -23706,7 +23712,7 @@
         <v>43</v>
       </c>
       <c r="C332" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D332">
         <v>2</v>
@@ -23774,7 +23780,7 @@
         <v>43</v>
       </c>
       <c r="C333" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D333">
         <v>5</v>
@@ -23842,7 +23848,7 @@
         <v>43</v>
       </c>
       <c r="C334" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D334">
         <v>1</v>
@@ -23910,7 +23916,7 @@
         <v>43</v>
       </c>
       <c r="C335" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D335">
         <v>11</v>
@@ -23978,7 +23984,7 @@
         <v>43</v>
       </c>
       <c r="C336" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D336">
         <v>1</v>
@@ -24046,7 +24052,7 @@
         <v>43</v>
       </c>
       <c r="C337" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D337">
         <v>1</v>
@@ -24114,7 +24120,7 @@
         <v>43</v>
       </c>
       <c r="C338" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D338">
         <v>1</v>
@@ -24182,7 +24188,7 @@
         <v>43</v>
       </c>
       <c r="C339" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D339">
         <v>3</v>
@@ -24250,7 +24256,7 @@
         <v>43</v>
       </c>
       <c r="C340" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D340">
         <v>1</v>
@@ -24318,7 +24324,7 @@
         <v>43</v>
       </c>
       <c r="C341" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D341">
         <v>1</v>
@@ -24386,7 +24392,7 @@
         <v>43</v>
       </c>
       <c r="C342" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D342">
         <v>1</v>
@@ -24454,7 +24460,7 @@
         <v>43</v>
       </c>
       <c r="C343" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D343">
         <v>1</v>
@@ -24522,7 +24528,7 @@
         <v>43</v>
       </c>
       <c r="C344" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D344">
         <v>45</v>
@@ -24590,7 +24596,7 @@
         <v>43</v>
       </c>
       <c r="C345" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D345">
         <v>405</v>
@@ -24658,7 +24664,7 @@
         <v>43</v>
       </c>
       <c r="C346" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D346">
         <v>4</v>
@@ -24726,7 +24732,7 @@
         <v>43</v>
       </c>
       <c r="C347" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D347">
         <v>3</v>
@@ -24794,7 +24800,7 @@
         <v>43</v>
       </c>
       <c r="C348" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D348">
         <v>1</v>
@@ -24862,7 +24868,7 @@
         <v>43</v>
       </c>
       <c r="C349" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D349">
         <v>10</v>
@@ -24930,7 +24936,7 @@
         <v>44</v>
       </c>
       <c r="C350" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D350">
         <v>8</v>
@@ -24998,7 +25004,7 @@
         <v>44</v>
       </c>
       <c r="C351" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D351">
         <v>4</v>
@@ -25066,7 +25072,7 @@
         <v>44</v>
       </c>
       <c r="C352" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D352">
         <v>24</v>
@@ -25134,7 +25140,7 @@
         <v>44</v>
       </c>
       <c r="C353" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D353">
         <v>15</v>
@@ -25202,7 +25208,7 @@
         <v>44</v>
       </c>
       <c r="C354" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D354">
         <v>1</v>
@@ -25270,7 +25276,7 @@
         <v>44</v>
       </c>
       <c r="C355" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D355">
         <v>1</v>
@@ -25338,7 +25344,7 @@
         <v>44</v>
       </c>
       <c r="C356" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D356">
         <v>1</v>
@@ -25406,7 +25412,7 @@
         <v>44</v>
       </c>
       <c r="C357" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D357">
         <v>1</v>
@@ -25474,7 +25480,7 @@
         <v>44</v>
       </c>
       <c r="C358" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D358">
         <v>1</v>
@@ -25542,7 +25548,7 @@
         <v>44</v>
       </c>
       <c r="C359" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D359">
         <v>6</v>
@@ -25610,7 +25616,7 @@
         <v>44</v>
       </c>
       <c r="C360" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D360">
         <v>1</v>
@@ -25678,7 +25684,7 @@
         <v>44</v>
       </c>
       <c r="C361" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D361">
         <v>20</v>
@@ -25746,7 +25752,7 @@
         <v>44</v>
       </c>
       <c r="C362" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D362">
         <v>10</v>
@@ -25814,7 +25820,7 @@
         <v>44</v>
       </c>
       <c r="C363" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D363">
         <v>1</v>
@@ -25882,7 +25888,7 @@
         <v>44</v>
       </c>
       <c r="C364" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D364">
         <v>5</v>
@@ -25950,7 +25956,7 @@
         <v>44</v>
       </c>
       <c r="C365" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D365">
         <v>4</v>
@@ -26018,7 +26024,7 @@
         <v>44</v>
       </c>
       <c r="C366" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D366">
         <v>2</v>
@@ -26086,7 +26092,7 @@
         <v>44</v>
       </c>
       <c r="C367" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D367">
         <v>701</v>
@@ -26154,7 +26160,7 @@
         <v>44</v>
       </c>
       <c r="C368" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D368">
         <v>388</v>
@@ -26222,7 +26228,7 @@
         <v>44</v>
       </c>
       <c r="C369" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D369">
         <v>18</v>
@@ -26290,7 +26296,7 @@
         <v>44</v>
       </c>
       <c r="C370" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D370">
         <v>1</v>
@@ -26358,7 +26364,7 @@
         <v>44</v>
       </c>
       <c r="C371" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D371">
         <v>2</v>
@@ -26426,7 +26432,7 @@
         <v>44</v>
       </c>
       <c r="C372" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D372">
         <v>19</v>
@@ -26494,7 +26500,7 @@
         <v>44</v>
       </c>
       <c r="C373" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D373">
         <v>16</v>
@@ -26562,7 +26568,7 @@
         <v>44</v>
       </c>
       <c r="C374" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D374">
         <v>2</v>
@@ -26630,7 +26636,7 @@
         <v>44</v>
       </c>
       <c r="C375" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D375">
         <v>4</v>
@@ -26698,7 +26704,7 @@
         <v>44</v>
       </c>
       <c r="C376" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D376">
         <v>1</v>
@@ -26766,7 +26772,7 @@
         <v>44</v>
       </c>
       <c r="C377" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D377">
         <v>18</v>
@@ -26834,7 +26840,7 @@
         <v>44</v>
       </c>
       <c r="C378" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D378">
         <v>1</v>
@@ -26902,7 +26908,7 @@
         <v>45</v>
       </c>
       <c r="C379" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D379">
         <v>1</v>
@@ -26970,7 +26976,7 @@
         <v>45</v>
       </c>
       <c r="C380" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D380">
         <v>1</v>
@@ -27038,7 +27044,7 @@
         <v>45</v>
       </c>
       <c r="C381" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D381">
         <v>1</v>
@@ -27106,7 +27112,7 @@
         <v>45</v>
       </c>
       <c r="C382" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D382">
         <v>640</v>
@@ -27174,7 +27180,7 @@
         <v>45</v>
       </c>
       <c r="C383" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D383">
         <v>747</v>
@@ -27242,7 +27248,7 @@
         <v>45</v>
       </c>
       <c r="C384" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D384">
         <v>16</v>
@@ -27310,7 +27316,7 @@
         <v>45</v>
       </c>
       <c r="C385" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D385">
         <v>1</v>
@@ -27378,7 +27384,7 @@
         <v>45</v>
       </c>
       <c r="C386" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D386">
         <v>1</v>
@@ -27446,7 +27452,7 @@
         <v>45</v>
       </c>
       <c r="C387" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D387">
         <v>4</v>
@@ -27514,7 +27520,7 @@
         <v>45</v>
       </c>
       <c r="C388" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D388">
         <v>13</v>
@@ -27582,7 +27588,7 @@
         <v>45</v>
       </c>
       <c r="C389" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D389">
         <v>22</v>
@@ -27650,7 +27656,7 @@
         <v>45</v>
       </c>
       <c r="C390" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D390">
         <v>3</v>
@@ -27718,7 +27724,7 @@
         <v>45</v>
       </c>
       <c r="C391" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D391">
         <v>1</v>
@@ -27786,7 +27792,7 @@
         <v>45</v>
       </c>
       <c r="C392" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D392">
         <v>5</v>
@@ -27854,7 +27860,7 @@
         <v>45</v>
       </c>
       <c r="C393" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D393">
         <v>5</v>
@@ -27922,7 +27928,7 @@
         <v>46</v>
       </c>
       <c r="C394" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D394">
         <v>2</v>
@@ -27990,7 +27996,7 @@
         <v>46</v>
       </c>
       <c r="C395" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D395">
         <v>2</v>
@@ -28058,7 +28064,7 @@
         <v>46</v>
       </c>
       <c r="C396" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D396">
         <v>248</v>
@@ -28126,7 +28132,7 @@
         <v>46</v>
       </c>
       <c r="C397" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D397">
         <v>453</v>
@@ -28194,7 +28200,7 @@
         <v>46</v>
       </c>
       <c r="C398" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D398">
         <v>15</v>
@@ -28262,7 +28268,7 @@
         <v>46</v>
       </c>
       <c r="C399" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D399">
         <v>1</v>
@@ -28330,7 +28336,7 @@
         <v>46</v>
       </c>
       <c r="C400" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D400">
         <v>1</v>
@@ -28398,7 +28404,7 @@
         <v>46</v>
       </c>
       <c r="C401" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D401">
         <v>2</v>
@@ -28466,7 +28472,7 @@
         <v>46</v>
       </c>
       <c r="C402" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D402">
         <v>1</v>
@@ -28534,7 +28540,7 @@
         <v>46</v>
       </c>
       <c r="C403" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D403">
         <v>15</v>
@@ -28602,7 +28608,7 @@
         <v>46</v>
       </c>
       <c r="C404" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D404">
         <v>10</v>
@@ -28670,7 +28676,7 @@
         <v>46</v>
       </c>
       <c r="C405" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D405">
         <v>12</v>
@@ -28738,7 +28744,7 @@
         <v>46</v>
       </c>
       <c r="C406" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D406">
         <v>2</v>
@@ -28806,7 +28812,7 @@
         <v>46</v>
       </c>
       <c r="C407" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D407">
         <v>1</v>
@@ -28874,7 +28880,7 @@
         <v>46</v>
       </c>
       <c r="C408" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D408">
         <v>28</v>
@@ -28942,7 +28948,7 @@
         <v>46</v>
       </c>
       <c r="C409" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -29010,7 +29016,7 @@
         <v>46</v>
       </c>
       <c r="C410" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D410">
         <v>3</v>
@@ -29078,7 +29084,7 @@
         <v>47</v>
       </c>
       <c r="C411" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D411">
         <v>1</v>
@@ -29146,7 +29152,7 @@
         <v>47</v>
       </c>
       <c r="C412" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D412">
         <v>39</v>
@@ -29214,7 +29220,7 @@
         <v>47</v>
       </c>
       <c r="C413" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D413">
         <v>77</v>
@@ -29282,7 +29288,7 @@
         <v>47</v>
       </c>
       <c r="C414" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D414">
         <v>2</v>
@@ -29350,7 +29356,7 @@
         <v>47</v>
       </c>
       <c r="C415" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -29418,7 +29424,7 @@
         <v>47</v>
       </c>
       <c r="C416" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D416">
         <v>4</v>
@@ -29486,7 +29492,7 @@
         <v>47</v>
       </c>
       <c r="C417" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D417">
         <v>3</v>
@@ -29554,7 +29560,7 @@
         <v>47</v>
       </c>
       <c r="C418" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D418">
         <v>1</v>
@@ -29622,7 +29628,7 @@
         <v>47</v>
       </c>
       <c r="C419" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D419">
         <v>1</v>
@@ -29690,7 +29696,7 @@
         <v>47</v>
       </c>
       <c r="C420" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D420">
         <v>3</v>
@@ -29758,7 +29764,7 @@
         <v>47</v>
       </c>
       <c r="C421" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D421">
         <v>138</v>
@@ -29826,7 +29832,7 @@
         <v>47</v>
       </c>
       <c r="C422" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D422">
         <v>7</v>
@@ -29894,7 +29900,7 @@
         <v>47</v>
       </c>
       <c r="C423" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -29962,7 +29968,7 @@
         <v>47</v>
       </c>
       <c r="C424" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D424">
         <v>15</v>
@@ -30030,7 +30036,7 @@
         <v>47</v>
       </c>
       <c r="C425" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D425">
         <v>9</v>
@@ -30098,7 +30104,7 @@
         <v>47</v>
       </c>
       <c r="C426" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D426">
         <v>9</v>
@@ -30166,7 +30172,7 @@
         <v>47</v>
       </c>
       <c r="C427" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D427">
         <v>23</v>
@@ -30234,7 +30240,7 @@
         <v>47</v>
       </c>
       <c r="C428" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D428">
         <v>1</v>
@@ -30302,7 +30308,7 @@
         <v>47</v>
       </c>
       <c r="C429" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D429">
         <v>1</v>
@@ -30370,7 +30376,7 @@
         <v>47</v>
       </c>
       <c r="C430" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D430">
         <v>1</v>
@@ -30438,7 +30444,7 @@
         <v>48</v>
       </c>
       <c r="C431" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D431">
         <v>1</v>
@@ -30506,7 +30512,7 @@
         <v>48</v>
       </c>
       <c r="C432" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D432">
         <v>20</v>
@@ -30574,7 +30580,7 @@
         <v>48</v>
       </c>
       <c r="C433" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D433">
         <v>16</v>
@@ -30642,7 +30648,7 @@
         <v>48</v>
       </c>
       <c r="C434" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D434">
         <v>3</v>
@@ -30710,7 +30716,7 @@
         <v>48</v>
       </c>
       <c r="C435" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D435">
         <v>5</v>
@@ -30778,7 +30784,7 @@
         <v>48</v>
       </c>
       <c r="C436" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D436">
         <v>2</v>
@@ -30846,7 +30852,7 @@
         <v>48</v>
       </c>
       <c r="C437" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D437">
         <v>515</v>
@@ -30914,7 +30920,7 @@
         <v>48</v>
       </c>
       <c r="C438" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D438">
         <v>4</v>
@@ -30982,7 +30988,7 @@
         <v>48</v>
       </c>
       <c r="C439" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D439">
         <v>1</v>
@@ -31050,7 +31056,7 @@
         <v>48</v>
       </c>
       <c r="C440" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D440">
         <v>42</v>
@@ -31118,7 +31124,7 @@
         <v>48</v>
       </c>
       <c r="C441" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D441">
         <v>300</v>
@@ -31186,7 +31192,7 @@
         <v>48</v>
       </c>
       <c r="C442" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D442">
         <v>5</v>
@@ -31254,7 +31260,7 @@
         <v>48</v>
       </c>
       <c r="C443" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D443">
         <v>6</v>
@@ -31322,7 +31328,7 @@
         <v>48</v>
       </c>
       <c r="C444" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D444">
         <v>2</v>
@@ -31390,7 +31396,7 @@
         <v>48</v>
       </c>
       <c r="C445" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D445">
         <v>1</v>
@@ -31458,7 +31464,7 @@
         <v>48</v>
       </c>
       <c r="C446" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D446">
         <v>1</v>
@@ -31526,7 +31532,7 @@
         <v>48</v>
       </c>
       <c r="C447" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D447">
         <v>38</v>
@@ -31594,7 +31600,7 @@
         <v>48</v>
       </c>
       <c r="C448" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D448">
         <v>1</v>
@@ -31662,7 +31668,7 @@
         <v>48</v>
       </c>
       <c r="C449" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D449">
         <v>1</v>
@@ -31730,7 +31736,7 @@
         <v>48</v>
       </c>
       <c r="C450" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D450">
         <v>2</v>
@@ -31798,7 +31804,7 @@
         <v>48</v>
       </c>
       <c r="C451" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D451">
         <v>9</v>
@@ -31866,7 +31872,7 @@
         <v>48</v>
       </c>
       <c r="C452" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D452">
         <v>2</v>
@@ -31934,7 +31940,7 @@
         <v>48</v>
       </c>
       <c r="C453" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D453">
         <v>4</v>
@@ -32002,7 +32008,7 @@
         <v>48</v>
       </c>
       <c r="C454" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D454">
         <v>96</v>
@@ -32070,7 +32076,7 @@
         <v>48</v>
       </c>
       <c r="C455" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D455">
         <v>37</v>
@@ -32138,7 +32144,7 @@
         <v>48</v>
       </c>
       <c r="C456" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D456">
         <v>25</v>
@@ -32206,7 +32212,7 @@
         <v>48</v>
       </c>
       <c r="C457" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D457">
         <v>1</v>
@@ -32274,7 +32280,7 @@
         <v>48</v>
       </c>
       <c r="C458" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D458">
         <v>2</v>
@@ -32342,7 +32348,7 @@
         <v>48</v>
       </c>
       <c r="C459" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D459">
         <v>5</v>
@@ -32410,7 +32416,7 @@
         <v>48</v>
       </c>
       <c r="C460" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D460">
         <v>2</v>
@@ -32478,7 +32484,7 @@
         <v>49</v>
       </c>
       <c r="C461" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D461">
         <v>1</v>
@@ -32546,7 +32552,7 @@
         <v>49</v>
       </c>
       <c r="C462" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D462">
         <v>2</v>
@@ -32614,7 +32620,7 @@
         <v>49</v>
       </c>
       <c r="C463" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D463">
         <v>8</v>
@@ -32682,7 +32688,7 @@
         <v>49</v>
       </c>
       <c r="C464" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D464">
         <v>3</v>
@@ -32750,7 +32756,7 @@
         <v>49</v>
       </c>
       <c r="C465" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D465">
         <v>440</v>
@@ -32818,7 +32824,7 @@
         <v>49</v>
       </c>
       <c r="C466" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D466">
         <v>1</v>
@@ -32886,7 +32892,7 @@
         <v>49</v>
       </c>
       <c r="C467" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D467">
         <v>8</v>
@@ -32954,7 +32960,7 @@
         <v>49</v>
       </c>
       <c r="C468" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D468">
         <v>1008</v>
@@ -33022,7 +33028,7 @@
         <v>49</v>
       </c>
       <c r="C469" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D469">
         <v>31</v>
@@ -33090,7 +33096,7 @@
         <v>49</v>
       </c>
       <c r="C470" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D470">
         <v>6</v>
@@ -33158,7 +33164,7 @@
         <v>49</v>
       </c>
       <c r="C471" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D471">
         <v>11</v>
@@ -33226,7 +33232,7 @@
         <v>49</v>
       </c>
       <c r="C472" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D472">
         <v>14</v>
@@ -33294,7 +33300,7 @@
         <v>49</v>
       </c>
       <c r="C473" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D473">
         <v>25</v>
@@ -33362,7 +33368,7 @@
         <v>49</v>
       </c>
       <c r="C474" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D474">
         <v>2</v>
@@ -33430,7 +33436,7 @@
         <v>49</v>
       </c>
       <c r="C475" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D475">
         <v>1</v>
@@ -33498,7 +33504,7 @@
         <v>49</v>
       </c>
       <c r="C476" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D476">
         <v>10</v>
@@ -33566,7 +33572,7 @@
         <v>49</v>
       </c>
       <c r="C477" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D477">
         <v>21</v>
@@ -33634,7 +33640,7 @@
         <v>49</v>
       </c>
       <c r="C478" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D478">
         <v>1</v>
@@ -33702,7 +33708,7 @@
         <v>49</v>
       </c>
       <c r="C479" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D479">
         <v>5</v>
@@ -33770,7 +33776,7 @@
         <v>49</v>
       </c>
       <c r="C480" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D480">
         <v>1</v>
@@ -33838,7 +33844,7 @@
         <v>49</v>
       </c>
       <c r="C481" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D481">
         <v>32</v>
@@ -33906,7 +33912,7 @@
         <v>49</v>
       </c>
       <c r="C482" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D482">
         <v>15</v>
@@ -33974,7 +33980,7 @@
         <v>49</v>
       </c>
       <c r="C483" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D483">
         <v>4</v>
@@ -34042,7 +34048,7 @@
         <v>49</v>
       </c>
       <c r="C484" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D484">
         <v>4</v>
@@ -34110,7 +34116,7 @@
         <v>49</v>
       </c>
       <c r="C485" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D485">
         <v>11</v>
@@ -34178,7 +34184,7 @@
         <v>49</v>
       </c>
       <c r="C486" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D486">
         <v>2</v>
@@ -34246,7 +34252,7 @@
         <v>49</v>
       </c>
       <c r="C487" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D487">
         <v>1</v>
@@ -34314,7 +34320,7 @@
         <v>49</v>
       </c>
       <c r="C488" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D488">
         <v>96</v>
@@ -34382,7 +34388,7 @@
         <v>49</v>
       </c>
       <c r="C489" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D489">
         <v>207</v>
@@ -34450,7 +34456,7 @@
         <v>49</v>
       </c>
       <c r="C490" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D490">
         <v>206</v>
@@ -34518,7 +34524,7 @@
         <v>49</v>
       </c>
       <c r="C491" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D491">
         <v>2</v>
@@ -34586,7 +34592,7 @@
         <v>49</v>
       </c>
       <c r="C492" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D492">
         <v>2</v>
@@ -34654,7 +34660,7 @@
         <v>49</v>
       </c>
       <c r="C493" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D493">
         <v>283</v>
@@ -34722,7 +34728,7 @@
         <v>49</v>
       </c>
       <c r="C494" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D494">
         <v>387</v>
@@ -34790,7 +34796,7 @@
         <v>49</v>
       </c>
       <c r="C495" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D495">
         <v>24</v>
@@ -34858,7 +34864,7 @@
         <v>49</v>
       </c>
       <c r="C496" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D496">
         <v>61</v>
@@ -34926,7 +34932,7 @@
         <v>49</v>
       </c>
       <c r="C497" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D497">
         <v>1</v>
@@ -34994,7 +35000,7 @@
         <v>49</v>
       </c>
       <c r="C498" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D498">
         <v>2</v>
@@ -35062,7 +35068,7 @@
         <v>49</v>
       </c>
       <c r="C499" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D499">
         <v>44</v>
@@ -35130,7 +35136,7 @@
         <v>49</v>
       </c>
       <c r="C500" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D500">
         <v>6</v>
@@ -35198,7 +35204,7 @@
         <v>49</v>
       </c>
       <c r="C501" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D501">
         <v>20</v>
@@ -35266,7 +35272,7 @@
         <v>49</v>
       </c>
       <c r="C502" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D502">
         <v>55</v>
@@ -35334,7 +35340,7 @@
         <v>49</v>
       </c>
       <c r="C503" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D503">
         <v>3</v>
@@ -35402,7 +35408,7 @@
         <v>49</v>
       </c>
       <c r="C504" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D504">
         <v>6</v>
@@ -35470,7 +35476,7 @@
         <v>49</v>
       </c>
       <c r="C505" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D505">
         <v>1</v>
@@ -35538,7 +35544,7 @@
         <v>49</v>
       </c>
       <c r="C506" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D506">
         <v>3</v>
@@ -35606,7 +35612,7 @@
         <v>49</v>
       </c>
       <c r="C507" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D507">
         <v>14</v>
@@ -35674,7 +35680,7 @@
         <v>50</v>
       </c>
       <c r="C508" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D508">
         <v>1</v>
@@ -35742,7 +35748,7 @@
         <v>50</v>
       </c>
       <c r="C509" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D509">
         <v>3</v>
@@ -35810,7 +35816,7 @@
         <v>50</v>
       </c>
       <c r="C510" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D510">
         <v>1</v>
@@ -35878,64 +35884,64 @@
         <v>50</v>
       </c>
       <c r="C511" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E511">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="S511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="U511">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="V511">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="512" spans="1:22">
@@ -35949,61 +35955,61 @@
         <v>215</v>
       </c>
       <c r="D512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="E512">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="F512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="G512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="H512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="I512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="J512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="K512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="L512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="M512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="N512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="O512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="P512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="Q512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="R512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="S512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="T512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="U512">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="V512">
-        <v>244</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:22">
@@ -36014,64 +36020,64 @@
         <v>50</v>
       </c>
       <c r="C513" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="E513">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="F513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="G513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="H513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="I513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="J513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="K513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="L513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="M513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="N513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="O513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="P513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="Q513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="R513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="S513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="T513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="U513">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="V513">
-        <v>19</v>
+        <v>269</v>
       </c>
     </row>
     <row r="514" spans="1:22">
@@ -36082,64 +36088,64 @@
         <v>50</v>
       </c>
       <c r="C514" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="R514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="S514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="T514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="U514">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V514">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="515" spans="1:22">
@@ -36150,64 +36156,64 @@
         <v>50</v>
       </c>
       <c r="C515" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="D515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V515">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:22">
@@ -36218,64 +36224,64 @@
         <v>50</v>
       </c>
       <c r="C516" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="D516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U516">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V516">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="517" spans="1:22">
@@ -36286,64 +36292,64 @@
         <v>50</v>
       </c>
       <c r="C517" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:22">
@@ -36354,64 +36360,64 @@
         <v>50</v>
       </c>
       <c r="C518" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V518">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:22">
@@ -36425,61 +36431,61 @@
         <v>240</v>
       </c>
       <c r="D519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U519">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V519">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:22">
@@ -36490,7 +36496,7 @@
         <v>50</v>
       </c>
       <c r="C520" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D520">
         <v>1</v>
@@ -36558,64 +36564,64 @@
         <v>50</v>
       </c>
       <c r="C521" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V521">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:22">
@@ -36629,61 +36635,61 @@
         <v>261</v>
       </c>
       <c r="D522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V522">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:22">
@@ -36694,64 +36700,64 @@
         <v>50</v>
       </c>
       <c r="C523" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="D523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E523">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U523">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="V523">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:22">
@@ -36762,64 +36768,64 @@
         <v>50</v>
       </c>
       <c r="C524" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="D524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E524">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="H524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="K524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="L524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="M524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="N524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="O524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="P524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="Q524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="R524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="S524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="T524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="U524">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="V524">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="525" spans="1:22">
@@ -36830,64 +36836,64 @@
         <v>50</v>
       </c>
       <c r="C525" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="E525">
-        <v>417</v>
+        <v>75</v>
       </c>
       <c r="F525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="G525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="H525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="I525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="J525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="K525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="L525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="M525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="N525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="O525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="P525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="Q525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="R525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="S525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="T525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="U525">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="V525">
-        <v>422</v>
+        <v>75</v>
       </c>
     </row>
     <row r="526" spans="1:22">
@@ -36901,61 +36907,61 @@
         <v>246</v>
       </c>
       <c r="D526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="E526">
-        <v>10</v>
+        <v>475</v>
       </c>
       <c r="F526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="G526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="H526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="I526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="J526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="K526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="L526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="M526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="N526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="O526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="P526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="Q526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="R526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="S526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="T526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="U526">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="V526">
-        <v>10</v>
+        <v>480</v>
       </c>
     </row>
     <row r="527" spans="1:22">
@@ -36966,64 +36972,64 @@
         <v>50</v>
       </c>
       <c r="C527" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="U527">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="V527">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="528" spans="1:22">
@@ -37034,64 +37040,64 @@
         <v>50</v>
       </c>
       <c r="C528" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="D528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="L528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="O528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="P528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="Q528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="R528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="S528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="U528">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="V528">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="529" spans="1:22">
@@ -37102,64 +37108,64 @@
         <v>50</v>
       </c>
       <c r="C529" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="D529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="T529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="U529">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="V529">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="530" spans="1:22">
@@ -37173,61 +37179,61 @@
         <v>231</v>
       </c>
       <c r="D530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="E530">
-        <v>656</v>
+        <v>53</v>
       </c>
       <c r="F530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="G530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="H530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="I530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="J530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="K530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="L530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="M530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="N530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="O530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="P530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="Q530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="R530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="S530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="T530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="U530">
-        <v>659</v>
+        <v>53</v>
       </c>
       <c r="V530">
-        <v>659</v>
+        <v>53</v>
       </c>
     </row>
     <row r="531" spans="1:22">
@@ -37238,64 +37244,64 @@
         <v>50</v>
       </c>
       <c r="C531" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="D531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="E531">
-        <v>15</v>
+        <v>829</v>
       </c>
       <c r="F531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="G531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="H531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="I531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="J531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="K531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="L531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="M531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="N531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="O531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="P531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="Q531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="R531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="S531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="T531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="U531">
-        <v>15</v>
+        <v>832</v>
       </c>
       <c r="V531">
-        <v>15</v>
+        <v>832</v>
       </c>
     </row>
     <row r="532" spans="1:22">
@@ -37309,61 +37315,61 @@
         <v>264</v>
       </c>
       <c r="D532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="K532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="L532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="N532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="O532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="P532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="Q532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="R532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="S532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="T532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="U532">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="V532">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="533" spans="1:22">
@@ -37377,61 +37383,61 @@
         <v>265</v>
       </c>
       <c r="D533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U533">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V533">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="534" spans="1:22">
@@ -37445,61 +37451,61 @@
         <v>266</v>
       </c>
       <c r="D534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U534">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V534">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="535" spans="1:22">
@@ -37510,64 +37516,64 @@
         <v>50</v>
       </c>
       <c r="C535" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="D535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="E535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="F535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="G535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="H535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="I535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="J535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="K535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="L535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="M535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="N535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="O535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="P535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="Q535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="R535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="S535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="T535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="U535">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="V535">
-        <v>132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:22">
@@ -37581,61 +37587,61 @@
         <v>249</v>
       </c>
       <c r="D536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="E536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="G536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="H536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="I536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="J536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="K536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="L536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="M536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="O536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="P536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="Q536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="R536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="S536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="T536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="U536">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="V536">
-        <v>145</v>
+        <v>175</v>
       </c>
     </row>
     <row r="537" spans="1:22">
@@ -37649,61 +37655,61 @@
         <v>250</v>
       </c>
       <c r="D537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="H537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="I537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="J537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="K537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="L537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="M537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="N537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="O537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="P537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="Q537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="R537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="S537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="T537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="U537">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="V537">
-        <v>3</v>
+        <v>171</v>
       </c>
     </row>
     <row r="538" spans="1:22">
@@ -37714,64 +37720,64 @@
         <v>50</v>
       </c>
       <c r="C538" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E538">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="G538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="H538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="J538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="K538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="L538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="M538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="N538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="O538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="P538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="Q538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="R538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="S538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="T538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="U538">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="V538">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539" spans="1:22">
@@ -37785,61 +37791,61 @@
         <v>253</v>
       </c>
       <c r="D539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="E539">
-        <v>327</v>
+        <v>38</v>
       </c>
       <c r="F539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="G539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="H539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="I539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="J539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="K539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="L539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="M539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="N539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="O539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="P539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="Q539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="R539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="S539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="T539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="U539">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="V539">
-        <v>328</v>
+        <v>39</v>
       </c>
     </row>
     <row r="540" spans="1:22">
@@ -37853,61 +37859,61 @@
         <v>254</v>
       </c>
       <c r="D540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="E540">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="F540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="G540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="H540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="I540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="J540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="K540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="L540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="M540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="N540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="O540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="P540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="Q540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="R540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="S540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="T540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="U540">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="V540">
-        <v>22</v>
+        <v>399</v>
       </c>
     </row>
     <row r="541" spans="1:22">
@@ -37918,64 +37924,64 @@
         <v>50</v>
       </c>
       <c r="C541" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="K541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="P541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="Q541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="R541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="S541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="T541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="U541">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="V541">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="542" spans="1:22">
@@ -37989,61 +37995,61 @@
         <v>268</v>
       </c>
       <c r="D542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="S542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="T542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="U542">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="V542">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="543" spans="1:22">
@@ -38057,61 +38063,61 @@
         <v>269</v>
       </c>
       <c r="D543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E543">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U543">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V543">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="544" spans="1:22">
@@ -38125,61 +38131,61 @@
         <v>270</v>
       </c>
       <c r="D544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E544">
         <v>1</v>
       </c>
       <c r="F544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V544">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:22">
@@ -38193,61 +38199,61 @@
         <v>271</v>
       </c>
       <c r="D545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V545">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:22">
@@ -38258,64 +38264,64 @@
         <v>50</v>
       </c>
       <c r="C546" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="D546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="I546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="K546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="L546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="M546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="N546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="O546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="P546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="Q546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="R546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="S546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="T546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="U546">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="V546">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="547" spans="1:22">
@@ -38329,61 +38335,61 @@
         <v>256</v>
       </c>
       <c r="D547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="N547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="O547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="P547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Q547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="S547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="T547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="U547">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="V547">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="548" spans="1:22">
@@ -38397,61 +38403,469 @@
         <v>257</v>
       </c>
       <c r="D548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Q548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="S548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="U548">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="V548">
-        <v>14</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:22">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549" t="s">
+        <v>50</v>
+      </c>
+      <c r="C549" t="s">
+        <v>258</v>
+      </c>
+      <c r="D549">
+        <v>15</v>
+      </c>
+      <c r="E549">
+        <v>15</v>
+      </c>
+      <c r="F549">
+        <v>15</v>
+      </c>
+      <c r="G549">
+        <v>15</v>
+      </c>
+      <c r="H549">
+        <v>15</v>
+      </c>
+      <c r="I549">
+        <v>15</v>
+      </c>
+      <c r="J549">
+        <v>15</v>
+      </c>
+      <c r="K549">
+        <v>15</v>
+      </c>
+      <c r="L549">
+        <v>15</v>
+      </c>
+      <c r="M549">
+        <v>15</v>
+      </c>
+      <c r="N549">
+        <v>15</v>
+      </c>
+      <c r="O549">
+        <v>15</v>
+      </c>
+      <c r="P549">
+        <v>15</v>
+      </c>
+      <c r="Q549">
+        <v>15</v>
+      </c>
+      <c r="R549">
+        <v>15</v>
+      </c>
+      <c r="S549">
+        <v>15</v>
+      </c>
+      <c r="T549">
+        <v>15</v>
+      </c>
+      <c r="U549">
+        <v>15</v>
+      </c>
+      <c r="V549">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="550" spans="1:22">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550" t="s">
+        <v>50</v>
+      </c>
+      <c r="C550" t="s">
+        <v>273</v>
+      </c>
+      <c r="D550">
+        <v>1</v>
+      </c>
+      <c r="E550">
+        <v>1</v>
+      </c>
+      <c r="F550">
+        <v>1</v>
+      </c>
+      <c r="G550">
+        <v>1</v>
+      </c>
+      <c r="H550">
+        <v>1</v>
+      </c>
+      <c r="I550">
+        <v>1</v>
+      </c>
+      <c r="J550">
+        <v>1</v>
+      </c>
+      <c r="K550">
+        <v>1</v>
+      </c>
+      <c r="L550">
+        <v>1</v>
+      </c>
+      <c r="M550">
+        <v>1</v>
+      </c>
+      <c r="N550">
+        <v>1</v>
+      </c>
+      <c r="O550">
+        <v>1</v>
+      </c>
+      <c r="P550">
+        <v>1</v>
+      </c>
+      <c r="Q550">
+        <v>1</v>
+      </c>
+      <c r="R550">
+        <v>1</v>
+      </c>
+      <c r="S550">
+        <v>1</v>
+      </c>
+      <c r="T550">
+        <v>1</v>
+      </c>
+      <c r="U550">
+        <v>1</v>
+      </c>
+      <c r="V550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:22">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551" t="s">
+        <v>51</v>
+      </c>
+      <c r="C551" t="s">
+        <v>232</v>
+      </c>
+      <c r="D551">
+        <v>1</v>
+      </c>
+      <c r="E551">
+        <v>1</v>
+      </c>
+      <c r="F551">
+        <v>1</v>
+      </c>
+      <c r="G551">
+        <v>1</v>
+      </c>
+      <c r="H551">
+        <v>1</v>
+      </c>
+      <c r="I551">
+        <v>1</v>
+      </c>
+      <c r="J551">
+        <v>1</v>
+      </c>
+      <c r="K551">
+        <v>1</v>
+      </c>
+      <c r="L551">
+        <v>1</v>
+      </c>
+      <c r="M551">
+        <v>1</v>
+      </c>
+      <c r="N551">
+        <v>1</v>
+      </c>
+      <c r="O551">
+        <v>1</v>
+      </c>
+      <c r="P551">
+        <v>1</v>
+      </c>
+      <c r="Q551">
+        <v>1</v>
+      </c>
+      <c r="R551">
+        <v>1</v>
+      </c>
+      <c r="S551">
+        <v>1</v>
+      </c>
+      <c r="T551">
+        <v>1</v>
+      </c>
+      <c r="U551">
+        <v>1</v>
+      </c>
+      <c r="V551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:22">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552" t="s">
+        <v>51</v>
+      </c>
+      <c r="C552" t="s">
+        <v>249</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
+      </c>
+      <c r="E552">
+        <v>1</v>
+      </c>
+      <c r="F552">
+        <v>1</v>
+      </c>
+      <c r="G552">
+        <v>1</v>
+      </c>
+      <c r="H552">
+        <v>1</v>
+      </c>
+      <c r="I552">
+        <v>1</v>
+      </c>
+      <c r="J552">
+        <v>1</v>
+      </c>
+      <c r="K552">
+        <v>1</v>
+      </c>
+      <c r="L552">
+        <v>1</v>
+      </c>
+      <c r="M552">
+        <v>1</v>
+      </c>
+      <c r="N552">
+        <v>1</v>
+      </c>
+      <c r="O552">
+        <v>1</v>
+      </c>
+      <c r="P552">
+        <v>1</v>
+      </c>
+      <c r="Q552">
+        <v>1</v>
+      </c>
+      <c r="R552">
+        <v>1</v>
+      </c>
+      <c r="S552">
+        <v>1</v>
+      </c>
+      <c r="T552">
+        <v>1</v>
+      </c>
+      <c r="U552">
+        <v>1</v>
+      </c>
+      <c r="V552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:22">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553" t="s">
+        <v>51</v>
+      </c>
+      <c r="C553" t="s">
+        <v>250</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+      <c r="E553">
+        <v>1</v>
+      </c>
+      <c r="F553">
+        <v>1</v>
+      </c>
+      <c r="G553">
+        <v>1</v>
+      </c>
+      <c r="H553">
+        <v>1</v>
+      </c>
+      <c r="I553">
+        <v>1</v>
+      </c>
+      <c r="J553">
+        <v>1</v>
+      </c>
+      <c r="K553">
+        <v>1</v>
+      </c>
+      <c r="L553">
+        <v>1</v>
+      </c>
+      <c r="M553">
+        <v>1</v>
+      </c>
+      <c r="N553">
+        <v>1</v>
+      </c>
+      <c r="O553">
+        <v>1</v>
+      </c>
+      <c r="P553">
+        <v>1</v>
+      </c>
+      <c r="Q553">
+        <v>1</v>
+      </c>
+      <c r="R553">
+        <v>1</v>
+      </c>
+      <c r="S553">
+        <v>1</v>
+      </c>
+      <c r="T553">
+        <v>1</v>
+      </c>
+      <c r="U553">
+        <v>1</v>
+      </c>
+      <c r="V553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:22">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554" t="s">
+        <v>51</v>
+      </c>
+      <c r="C554" t="s">
+        <v>254</v>
+      </c>
+      <c r="D554">
+        <v>2</v>
+      </c>
+      <c r="E554">
+        <v>2</v>
+      </c>
+      <c r="F554">
+        <v>2</v>
+      </c>
+      <c r="G554">
+        <v>2</v>
+      </c>
+      <c r="H554">
+        <v>2</v>
+      </c>
+      <c r="I554">
+        <v>2</v>
+      </c>
+      <c r="J554">
+        <v>2</v>
+      </c>
+      <c r="K554">
+        <v>2</v>
+      </c>
+      <c r="L554">
+        <v>2</v>
+      </c>
+      <c r="M554">
+        <v>2</v>
+      </c>
+      <c r="N554">
+        <v>2</v>
+      </c>
+      <c r="O554">
+        <v>2</v>
+      </c>
+      <c r="P554">
+        <v>2</v>
+      </c>
+      <c r="Q554">
+        <v>2</v>
+      </c>
+      <c r="R554">
+        <v>2</v>
+      </c>
+      <c r="S554">
+        <v>2</v>
+      </c>
+      <c r="T554">
+        <v>2</v>
+      </c>
+      <c r="U554">
+        <v>2</v>
+      </c>
+      <c r="V554">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/linajes.xlsx
+++ b/linajes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="277">
   <si>
     <t>month_year</t>
   </si>
@@ -820,6 +820,15 @@
     <t>BA.5.1.4</t>
   </si>
   <si>
+    <t>BA.5.1.6</t>
+  </si>
+  <si>
+    <t>BA.5.1.8</t>
+  </si>
+  <si>
+    <t>BA5.6.1</t>
+  </si>
+  <si>
     <t>BE.1.1</t>
   </si>
   <si>
@@ -1193,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V554"/>
+  <dimension ref="A1:V577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36023,61 +36032,61 @@
         <v>216</v>
       </c>
       <c r="D513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E513">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="N513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="O513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="R513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="S513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="T513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="U513">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="V513">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="514" spans="1:22">
@@ -36227,61 +36236,61 @@
         <v>210</v>
       </c>
       <c r="D516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V516">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:22">
@@ -36428,64 +36437,64 @@
         <v>50</v>
       </c>
       <c r="C519" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V519">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:22">
@@ -36496,64 +36505,64 @@
         <v>50</v>
       </c>
       <c r="C520" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U520">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V520">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:22">
@@ -36564,7 +36573,7 @@
         <v>50</v>
       </c>
       <c r="C521" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D521">
         <v>1</v>
@@ -36632,64 +36641,64 @@
         <v>50</v>
       </c>
       <c r="C522" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="D522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:22">
@@ -36700,7 +36709,7 @@
         <v>50</v>
       </c>
       <c r="C523" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D523">
         <v>2</v>
@@ -36768,64 +36777,64 @@
         <v>50</v>
       </c>
       <c r="C524" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="D524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E524">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="S524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="U524">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="V524">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:22">
@@ -36836,64 +36845,64 @@
         <v>50</v>
       </c>
       <c r="C525" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="D525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="E525">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="H525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="J525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="K525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="L525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="M525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="N525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="O525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="P525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="Q525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="R525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="S525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="T525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="U525">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="V525">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="526" spans="1:22">
@@ -36904,64 +36913,64 @@
         <v>50</v>
       </c>
       <c r="C526" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="E526">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="F526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="G526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="H526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="I526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="J526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="K526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="L526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="M526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="N526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="O526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="P526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Q526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="R526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="S526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="T526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="U526">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="V526">
-        <v>480</v>
+        <v>79</v>
       </c>
     </row>
     <row r="527" spans="1:22">
@@ -36972,64 +36981,64 @@
         <v>50</v>
       </c>
       <c r="C527" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="E527">
-        <v>12</v>
+        <v>523</v>
       </c>
       <c r="F527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="G527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="H527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="I527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="J527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="K527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="L527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="M527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="N527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="O527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="P527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="Q527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="R527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="S527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="T527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="U527">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="V527">
-        <v>12</v>
+        <v>528</v>
       </c>
     </row>
     <row r="528" spans="1:22">
@@ -37040,64 +37049,64 @@
         <v>50</v>
       </c>
       <c r="C528" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="O528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="P528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="S528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="U528">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="V528">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="529" spans="1:22">
@@ -37108,64 +37117,64 @@
         <v>50</v>
       </c>
       <c r="C529" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="H529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="I529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="J529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="K529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="L529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="M529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="N529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="O529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="P529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="Q529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="R529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="S529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="T529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="U529">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="V529">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="530" spans="1:22">
@@ -37176,64 +37185,64 @@
         <v>50</v>
       </c>
       <c r="C530" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="G530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="H530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="I530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="J530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="K530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="L530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="M530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="N530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="O530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="P530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="Q530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="R530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="S530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="T530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="U530">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="V530">
-        <v>53</v>
+        <v>105</v>
       </c>
     </row>
     <row r="531" spans="1:22">
@@ -37244,64 +37253,64 @@
         <v>50</v>
       </c>
       <c r="C531" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="E531">
-        <v>829</v>
+        <v>57</v>
       </c>
       <c r="F531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="G531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="H531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="I531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="J531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="K531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="L531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="M531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="N531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="O531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="P531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="Q531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="R531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="S531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="T531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="U531">
-        <v>832</v>
+        <v>57</v>
       </c>
       <c r="V531">
-        <v>832</v>
+        <v>57</v>
       </c>
     </row>
     <row r="532" spans="1:22">
@@ -37312,64 +37321,64 @@
         <v>50</v>
       </c>
       <c r="C532" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="D532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="E532">
-        <v>23</v>
+        <v>986</v>
       </c>
       <c r="F532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="G532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="H532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="I532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="J532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="K532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="L532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="M532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="N532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="O532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="P532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="Q532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="R532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="S532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="T532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="U532">
-        <v>23</v>
+        <v>991</v>
       </c>
       <c r="V532">
-        <v>23</v>
+        <v>991</v>
       </c>
     </row>
     <row r="533" spans="1:22">
@@ -37380,64 +37389,64 @@
         <v>50</v>
       </c>
       <c r="C533" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="H533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="J533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="L533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="N533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="O533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="P533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="Q533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="R533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="S533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="T533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="U533">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="V533">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="534" spans="1:22">
@@ -37448,64 +37457,64 @@
         <v>50</v>
       </c>
       <c r="C534" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U534">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V534">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="535" spans="1:22">
@@ -37516,64 +37525,64 @@
         <v>50</v>
       </c>
       <c r="C535" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U535">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V535">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="536" spans="1:22">
@@ -37584,64 +37593,64 @@
         <v>50</v>
       </c>
       <c r="C536" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="E536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="F536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="G536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="H536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="I536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="J536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="K536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="L536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="M536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="N536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="O536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="P536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="Q536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="R536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="S536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="T536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="U536">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="V536">
-        <v>175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:22">
@@ -37652,64 +37661,64 @@
         <v>50</v>
       </c>
       <c r="C537" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="D537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="E537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="F537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="G537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="H537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="I537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="J537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="K537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="L537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="M537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="N537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="O537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="P537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="Q537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="R537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="S537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="T537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="U537">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="V537">
-        <v>171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:22">
@@ -37720,64 +37729,64 @@
         <v>50</v>
       </c>
       <c r="C538" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U538">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V538">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="539" spans="1:22">
@@ -37788,64 +37797,64 @@
         <v>50</v>
       </c>
       <c r="C539" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="E539">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="F539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="G539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="H539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="I539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="J539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="K539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="L539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="M539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="N539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="O539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="P539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="Q539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="R539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="S539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="T539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="U539">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="V539">
-        <v>39</v>
+        <v>259</v>
       </c>
     </row>
     <row r="540" spans="1:22">
@@ -37856,64 +37865,64 @@
         <v>50</v>
       </c>
       <c r="C540" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="E540">
-        <v>398</v>
+        <v>203</v>
       </c>
       <c r="F540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="G540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="H540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="I540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="J540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="K540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="L540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="M540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="N540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="O540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="P540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="Q540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="R540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="S540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="T540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="U540">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="V540">
-        <v>399</v>
+        <v>203</v>
       </c>
     </row>
     <row r="541" spans="1:22">
@@ -37924,64 +37933,64 @@
         <v>50</v>
       </c>
       <c r="C541" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="H541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="I541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="J541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="K541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="L541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="M541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="N541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="O541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="P541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="Q541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="R541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="S541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="T541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="U541">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="V541">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:22">
@@ -37992,64 +38001,64 @@
         <v>50</v>
       </c>
       <c r="C542" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E542">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="H542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="K542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="L542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="O542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="P542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="Q542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="R542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="S542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="T542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="U542">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="V542">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="543" spans="1:22">
@@ -38060,64 +38069,64 @@
         <v>50</v>
       </c>
       <c r="C543" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="E543">
-        <v>9</v>
+        <v>436</v>
       </c>
       <c r="F543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="G543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="H543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="I543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="J543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="K543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="L543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="M543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="N543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="O543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="P543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="Q543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="R543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="S543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="T543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="U543">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="V543">
-        <v>9</v>
+        <v>437</v>
       </c>
     </row>
     <row r="544" spans="1:22">
@@ -38131,61 +38140,61 @@
         <v>270</v>
       </c>
       <c r="D544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E544">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="J544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="K544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="M544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="O544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="P544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="R544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="S544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="T544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U544">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="V544">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="545" spans="1:22">
@@ -38196,64 +38205,64 @@
         <v>50</v>
       </c>
       <c r="C545" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="D545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="J545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="K545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="L545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="M545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="N545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="O545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="P545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="Q545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="R545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="S545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="T545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="U545">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="V545">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="546" spans="1:22">
@@ -38264,64 +38273,64 @@
         <v>50</v>
       </c>
       <c r="C546" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="K546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="L546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="M546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="N546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="O546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="P546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Q546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="R546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="S546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="T546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="U546">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="V546">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="547" spans="1:22">
@@ -38332,64 +38341,64 @@
         <v>50</v>
       </c>
       <c r="C547" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="D547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="J547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="L547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="M547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="N547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="O547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="P547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="Q547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="R547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="S547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="T547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="U547">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V547">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="548" spans="1:22">
@@ -38400,64 +38409,64 @@
         <v>50</v>
       </c>
       <c r="C548" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="D548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E548">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U548">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V548">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:22">
@@ -38468,64 +38477,64 @@
         <v>50</v>
       </c>
       <c r="C549" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="D549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Q549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="U549">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="V549">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:22">
@@ -38536,64 +38545,64 @@
         <v>50</v>
       </c>
       <c r="C550" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U550">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V550">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="551" spans="1:22">
@@ -38601,67 +38610,67 @@
         <v>549</v>
       </c>
       <c r="B551" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C551" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="D551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="J551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="K551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="L551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="O551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="P551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="Q551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="R551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="S551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="T551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="U551">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="V551">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="552" spans="1:22">
@@ -38669,10 +38678,10 @@
         <v>550</v>
       </c>
       <c r="B552" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C552" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D552">
         <v>1</v>
@@ -38737,67 +38746,67 @@
         <v>551</v>
       </c>
       <c r="B553" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C553" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="O553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Q553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="U553">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V553">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="554" spans="1:22">
@@ -38805,67 +38814,1631 @@
         <v>552</v>
       </c>
       <c r="B554" t="s">
+        <v>50</v>
+      </c>
+      <c r="C554" t="s">
+        <v>276</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
+      </c>
+      <c r="E554">
+        <v>1</v>
+      </c>
+      <c r="F554">
+        <v>1</v>
+      </c>
+      <c r="G554">
+        <v>1</v>
+      </c>
+      <c r="H554">
+        <v>1</v>
+      </c>
+      <c r="I554">
+        <v>1</v>
+      </c>
+      <c r="J554">
+        <v>1</v>
+      </c>
+      <c r="K554">
+        <v>1</v>
+      </c>
+      <c r="L554">
+        <v>1</v>
+      </c>
+      <c r="M554">
+        <v>1</v>
+      </c>
+      <c r="N554">
+        <v>1</v>
+      </c>
+      <c r="O554">
+        <v>1</v>
+      </c>
+      <c r="P554">
+        <v>1</v>
+      </c>
+      <c r="Q554">
+        <v>1</v>
+      </c>
+      <c r="R554">
+        <v>1</v>
+      </c>
+      <c r="S554">
+        <v>1</v>
+      </c>
+      <c r="T554">
+        <v>1</v>
+      </c>
+      <c r="U554">
+        <v>1</v>
+      </c>
+      <c r="V554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:22">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555" t="s">
         <v>51</v>
       </c>
-      <c r="C554" t="s">
+      <c r="C555" t="s">
+        <v>188</v>
+      </c>
+      <c r="D555">
+        <v>1</v>
+      </c>
+      <c r="E555">
+        <v>1</v>
+      </c>
+      <c r="F555">
+        <v>1</v>
+      </c>
+      <c r="G555">
+        <v>1</v>
+      </c>
+      <c r="H555">
+        <v>1</v>
+      </c>
+      <c r="I555">
+        <v>1</v>
+      </c>
+      <c r="J555">
+        <v>1</v>
+      </c>
+      <c r="K555">
+        <v>1</v>
+      </c>
+      <c r="L555">
+        <v>1</v>
+      </c>
+      <c r="M555">
+        <v>1</v>
+      </c>
+      <c r="N555">
+        <v>1</v>
+      </c>
+      <c r="O555">
+        <v>1</v>
+      </c>
+      <c r="P555">
+        <v>1</v>
+      </c>
+      <c r="Q555">
+        <v>1</v>
+      </c>
+      <c r="R555">
+        <v>1</v>
+      </c>
+      <c r="S555">
+        <v>1</v>
+      </c>
+      <c r="T555">
+        <v>1</v>
+      </c>
+      <c r="U555">
+        <v>1</v>
+      </c>
+      <c r="V555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:22">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556" t="s">
+        <v>51</v>
+      </c>
+      <c r="C556" t="s">
+        <v>204</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
+      </c>
+      <c r="E556">
+        <v>1</v>
+      </c>
+      <c r="F556">
+        <v>1</v>
+      </c>
+      <c r="G556">
+        <v>1</v>
+      </c>
+      <c r="H556">
+        <v>1</v>
+      </c>
+      <c r="I556">
+        <v>1</v>
+      </c>
+      <c r="J556">
+        <v>1</v>
+      </c>
+      <c r="K556">
+        <v>1</v>
+      </c>
+      <c r="L556">
+        <v>1</v>
+      </c>
+      <c r="M556">
+        <v>1</v>
+      </c>
+      <c r="N556">
+        <v>1</v>
+      </c>
+      <c r="O556">
+        <v>1</v>
+      </c>
+      <c r="P556">
+        <v>1</v>
+      </c>
+      <c r="Q556">
+        <v>1</v>
+      </c>
+      <c r="R556">
+        <v>1</v>
+      </c>
+      <c r="S556">
+        <v>1</v>
+      </c>
+      <c r="T556">
+        <v>1</v>
+      </c>
+      <c r="U556">
+        <v>1</v>
+      </c>
+      <c r="V556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:22">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557" t="s">
+        <v>51</v>
+      </c>
+      <c r="C557" t="s">
+        <v>216</v>
+      </c>
+      <c r="D557">
+        <v>9</v>
+      </c>
+      <c r="E557">
+        <v>8</v>
+      </c>
+      <c r="F557">
+        <v>9</v>
+      </c>
+      <c r="G557">
+        <v>9</v>
+      </c>
+      <c r="H557">
+        <v>9</v>
+      </c>
+      <c r="I557">
+        <v>9</v>
+      </c>
+      <c r="J557">
+        <v>9</v>
+      </c>
+      <c r="K557">
+        <v>9</v>
+      </c>
+      <c r="L557">
+        <v>9</v>
+      </c>
+      <c r="M557">
+        <v>9</v>
+      </c>
+      <c r="N557">
+        <v>9</v>
+      </c>
+      <c r="O557">
+        <v>9</v>
+      </c>
+      <c r="P557">
+        <v>9</v>
+      </c>
+      <c r="Q557">
+        <v>9</v>
+      </c>
+      <c r="R557">
+        <v>9</v>
+      </c>
+      <c r="S557">
+        <v>9</v>
+      </c>
+      <c r="T557">
+        <v>9</v>
+      </c>
+      <c r="U557">
+        <v>9</v>
+      </c>
+      <c r="V557">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="558" spans="1:22">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558" t="s">
+        <v>51</v>
+      </c>
+      <c r="C558" t="s">
+        <v>262</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
+      </c>
+      <c r="E558">
+        <v>1</v>
+      </c>
+      <c r="F558">
+        <v>1</v>
+      </c>
+      <c r="G558">
+        <v>1</v>
+      </c>
+      <c r="H558">
+        <v>1</v>
+      </c>
+      <c r="I558">
+        <v>1</v>
+      </c>
+      <c r="J558">
+        <v>1</v>
+      </c>
+      <c r="K558">
+        <v>1</v>
+      </c>
+      <c r="L558">
+        <v>1</v>
+      </c>
+      <c r="M558">
+        <v>1</v>
+      </c>
+      <c r="N558">
+        <v>1</v>
+      </c>
+      <c r="O558">
+        <v>1</v>
+      </c>
+      <c r="P558">
+        <v>1</v>
+      </c>
+      <c r="Q558">
+        <v>1</v>
+      </c>
+      <c r="R558">
+        <v>1</v>
+      </c>
+      <c r="S558">
+        <v>1</v>
+      </c>
+      <c r="T558">
+        <v>1</v>
+      </c>
+      <c r="U558">
+        <v>1</v>
+      </c>
+      <c r="V558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:22">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559" t="s">
+        <v>51</v>
+      </c>
+      <c r="C559" t="s">
+        <v>230</v>
+      </c>
+      <c r="D559">
+        <v>8</v>
+      </c>
+      <c r="E559">
+        <v>8</v>
+      </c>
+      <c r="F559">
+        <v>8</v>
+      </c>
+      <c r="G559">
+        <v>8</v>
+      </c>
+      <c r="H559">
+        <v>8</v>
+      </c>
+      <c r="I559">
+        <v>8</v>
+      </c>
+      <c r="J559">
+        <v>8</v>
+      </c>
+      <c r="K559">
+        <v>8</v>
+      </c>
+      <c r="L559">
+        <v>8</v>
+      </c>
+      <c r="M559">
+        <v>8</v>
+      </c>
+      <c r="N559">
+        <v>8</v>
+      </c>
+      <c r="O559">
+        <v>8</v>
+      </c>
+      <c r="P559">
+        <v>8</v>
+      </c>
+      <c r="Q559">
+        <v>8</v>
+      </c>
+      <c r="R559">
+        <v>8</v>
+      </c>
+      <c r="S559">
+        <v>8</v>
+      </c>
+      <c r="T559">
+        <v>8</v>
+      </c>
+      <c r="U559">
+        <v>8</v>
+      </c>
+      <c r="V559">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:22">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560" t="s">
+        <v>51</v>
+      </c>
+      <c r="C560" t="s">
+        <v>246</v>
+      </c>
+      <c r="D560">
+        <v>78</v>
+      </c>
+      <c r="E560">
+        <v>78</v>
+      </c>
+      <c r="F560">
+        <v>78</v>
+      </c>
+      <c r="G560">
+        <v>78</v>
+      </c>
+      <c r="H560">
+        <v>78</v>
+      </c>
+      <c r="I560">
+        <v>78</v>
+      </c>
+      <c r="J560">
+        <v>78</v>
+      </c>
+      <c r="K560">
+        <v>78</v>
+      </c>
+      <c r="L560">
+        <v>78</v>
+      </c>
+      <c r="M560">
+        <v>78</v>
+      </c>
+      <c r="N560">
+        <v>78</v>
+      </c>
+      <c r="O560">
+        <v>78</v>
+      </c>
+      <c r="P560">
+        <v>78</v>
+      </c>
+      <c r="Q560">
+        <v>78</v>
+      </c>
+      <c r="R560">
+        <v>78</v>
+      </c>
+      <c r="S560">
+        <v>78</v>
+      </c>
+      <c r="T560">
+        <v>78</v>
+      </c>
+      <c r="U560">
+        <v>78</v>
+      </c>
+      <c r="V560">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="561" spans="1:22">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561" t="s">
+        <v>51</v>
+      </c>
+      <c r="C561" t="s">
+        <v>248</v>
+      </c>
+      <c r="D561">
+        <v>68</v>
+      </c>
+      <c r="E561">
+        <v>67</v>
+      </c>
+      <c r="F561">
+        <v>68</v>
+      </c>
+      <c r="G561">
+        <v>68</v>
+      </c>
+      <c r="H561">
+        <v>68</v>
+      </c>
+      <c r="I561">
+        <v>68</v>
+      </c>
+      <c r="J561">
+        <v>68</v>
+      </c>
+      <c r="K561">
+        <v>68</v>
+      </c>
+      <c r="L561">
+        <v>68</v>
+      </c>
+      <c r="M561">
+        <v>68</v>
+      </c>
+      <c r="N561">
+        <v>68</v>
+      </c>
+      <c r="O561">
+        <v>68</v>
+      </c>
+      <c r="P561">
+        <v>68</v>
+      </c>
+      <c r="Q561">
+        <v>68</v>
+      </c>
+      <c r="R561">
+        <v>68</v>
+      </c>
+      <c r="S561">
+        <v>68</v>
+      </c>
+      <c r="T561">
+        <v>68</v>
+      </c>
+      <c r="U561">
+        <v>68</v>
+      </c>
+      <c r="V561">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="562" spans="1:22">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562" t="s">
+        <v>51</v>
+      </c>
+      <c r="C562" t="s">
+        <v>231</v>
+      </c>
+      <c r="D562">
+        <v>3</v>
+      </c>
+      <c r="E562">
+        <v>3</v>
+      </c>
+      <c r="F562">
+        <v>3</v>
+      </c>
+      <c r="G562">
+        <v>3</v>
+      </c>
+      <c r="H562">
+        <v>3</v>
+      </c>
+      <c r="I562">
+        <v>3</v>
+      </c>
+      <c r="J562">
+        <v>3</v>
+      </c>
+      <c r="K562">
+        <v>3</v>
+      </c>
+      <c r="L562">
+        <v>3</v>
+      </c>
+      <c r="M562">
+        <v>3</v>
+      </c>
+      <c r="N562">
+        <v>3</v>
+      </c>
+      <c r="O562">
+        <v>3</v>
+      </c>
+      <c r="P562">
+        <v>3</v>
+      </c>
+      <c r="Q562">
+        <v>3</v>
+      </c>
+      <c r="R562">
+        <v>3</v>
+      </c>
+      <c r="S562">
+        <v>3</v>
+      </c>
+      <c r="T562">
+        <v>3</v>
+      </c>
+      <c r="U562">
+        <v>3</v>
+      </c>
+      <c r="V562">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:22">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>51</v>
+      </c>
+      <c r="C563" t="s">
+        <v>232</v>
+      </c>
+      <c r="D563">
+        <v>253</v>
+      </c>
+      <c r="E563">
+        <v>253</v>
+      </c>
+      <c r="F563">
+        <v>253</v>
+      </c>
+      <c r="G563">
+        <v>253</v>
+      </c>
+      <c r="H563">
+        <v>253</v>
+      </c>
+      <c r="I563">
+        <v>253</v>
+      </c>
+      <c r="J563">
+        <v>253</v>
+      </c>
+      <c r="K563">
+        <v>253</v>
+      </c>
+      <c r="L563">
+        <v>253</v>
+      </c>
+      <c r="M563">
+        <v>253</v>
+      </c>
+      <c r="N563">
+        <v>253</v>
+      </c>
+      <c r="O563">
+        <v>253</v>
+      </c>
+      <c r="P563">
+        <v>253</v>
+      </c>
+      <c r="Q563">
+        <v>253</v>
+      </c>
+      <c r="R563">
+        <v>253</v>
+      </c>
+      <c r="S563">
+        <v>253</v>
+      </c>
+      <c r="T563">
+        <v>253</v>
+      </c>
+      <c r="U563">
+        <v>253</v>
+      </c>
+      <c r="V563">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="564" spans="1:22">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
+        <v>51</v>
+      </c>
+      <c r="C564" t="s">
+        <v>264</v>
+      </c>
+      <c r="D564">
+        <v>15</v>
+      </c>
+      <c r="E564">
+        <v>15</v>
+      </c>
+      <c r="F564">
+        <v>15</v>
+      </c>
+      <c r="G564">
+        <v>15</v>
+      </c>
+      <c r="H564">
+        <v>15</v>
+      </c>
+      <c r="I564">
+        <v>15</v>
+      </c>
+      <c r="J564">
+        <v>15</v>
+      </c>
+      <c r="K564">
+        <v>15</v>
+      </c>
+      <c r="L564">
+        <v>15</v>
+      </c>
+      <c r="M564">
+        <v>15</v>
+      </c>
+      <c r="N564">
+        <v>15</v>
+      </c>
+      <c r="O564">
+        <v>15</v>
+      </c>
+      <c r="P564">
+        <v>15</v>
+      </c>
+      <c r="Q564">
+        <v>15</v>
+      </c>
+      <c r="R564">
+        <v>15</v>
+      </c>
+      <c r="S564">
+        <v>15</v>
+      </c>
+      <c r="T564">
+        <v>15</v>
+      </c>
+      <c r="U564">
+        <v>15</v>
+      </c>
+      <c r="V564">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="565" spans="1:22">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>51</v>
+      </c>
+      <c r="C565" t="s">
+        <v>266</v>
+      </c>
+      <c r="D565">
+        <v>3</v>
+      </c>
+      <c r="E565">
+        <v>3</v>
+      </c>
+      <c r="F565">
+        <v>3</v>
+      </c>
+      <c r="G565">
+        <v>3</v>
+      </c>
+      <c r="H565">
+        <v>3</v>
+      </c>
+      <c r="I565">
+        <v>3</v>
+      </c>
+      <c r="J565">
+        <v>3</v>
+      </c>
+      <c r="K565">
+        <v>3</v>
+      </c>
+      <c r="L565">
+        <v>3</v>
+      </c>
+      <c r="M565">
+        <v>3</v>
+      </c>
+      <c r="N565">
+        <v>3</v>
+      </c>
+      <c r="O565">
+        <v>3</v>
+      </c>
+      <c r="P565">
+        <v>3</v>
+      </c>
+      <c r="Q565">
+        <v>3</v>
+      </c>
+      <c r="R565">
+        <v>3</v>
+      </c>
+      <c r="S565">
+        <v>3</v>
+      </c>
+      <c r="T565">
+        <v>3</v>
+      </c>
+      <c r="U565">
+        <v>3</v>
+      </c>
+      <c r="V565">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566" spans="1:22">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
+        <v>51</v>
+      </c>
+      <c r="C566" t="s">
+        <v>269</v>
+      </c>
+      <c r="D566">
+        <v>37</v>
+      </c>
+      <c r="E566">
+        <v>37</v>
+      </c>
+      <c r="F566">
+        <v>37</v>
+      </c>
+      <c r="G566">
+        <v>37</v>
+      </c>
+      <c r="H566">
+        <v>37</v>
+      </c>
+      <c r="I566">
+        <v>37</v>
+      </c>
+      <c r="J566">
+        <v>37</v>
+      </c>
+      <c r="K566">
+        <v>37</v>
+      </c>
+      <c r="L566">
+        <v>37</v>
+      </c>
+      <c r="M566">
+        <v>37</v>
+      </c>
+      <c r="N566">
+        <v>37</v>
+      </c>
+      <c r="O566">
+        <v>37</v>
+      </c>
+      <c r="P566">
+        <v>37</v>
+      </c>
+      <c r="Q566">
+        <v>37</v>
+      </c>
+      <c r="R566">
+        <v>37</v>
+      </c>
+      <c r="S566">
+        <v>37</v>
+      </c>
+      <c r="T566">
+        <v>37</v>
+      </c>
+      <c r="U566">
+        <v>37</v>
+      </c>
+      <c r="V566">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="567" spans="1:22">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>51</v>
+      </c>
+      <c r="C567" t="s">
+        <v>249</v>
+      </c>
+      <c r="D567">
+        <v>87</v>
+      </c>
+      <c r="E567">
+        <v>87</v>
+      </c>
+      <c r="F567">
+        <v>87</v>
+      </c>
+      <c r="G567">
+        <v>87</v>
+      </c>
+      <c r="H567">
+        <v>87</v>
+      </c>
+      <c r="I567">
+        <v>87</v>
+      </c>
+      <c r="J567">
+        <v>87</v>
+      </c>
+      <c r="K567">
+        <v>87</v>
+      </c>
+      <c r="L567">
+        <v>87</v>
+      </c>
+      <c r="M567">
+        <v>87</v>
+      </c>
+      <c r="N567">
+        <v>87</v>
+      </c>
+      <c r="O567">
+        <v>87</v>
+      </c>
+      <c r="P567">
+        <v>87</v>
+      </c>
+      <c r="Q567">
+        <v>87</v>
+      </c>
+      <c r="R567">
+        <v>87</v>
+      </c>
+      <c r="S567">
+        <v>87</v>
+      </c>
+      <c r="T567">
+        <v>87</v>
+      </c>
+      <c r="U567">
+        <v>87</v>
+      </c>
+      <c r="V567">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="568" spans="1:22">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
+        <v>51</v>
+      </c>
+      <c r="C568" t="s">
+        <v>250</v>
+      </c>
+      <c r="D568">
+        <v>73</v>
+      </c>
+      <c r="E568">
+        <v>73</v>
+      </c>
+      <c r="F568">
+        <v>73</v>
+      </c>
+      <c r="G568">
+        <v>73</v>
+      </c>
+      <c r="H568">
+        <v>73</v>
+      </c>
+      <c r="I568">
+        <v>73</v>
+      </c>
+      <c r="J568">
+        <v>73</v>
+      </c>
+      <c r="K568">
+        <v>73</v>
+      </c>
+      <c r="L568">
+        <v>73</v>
+      </c>
+      <c r="M568">
+        <v>73</v>
+      </c>
+      <c r="N568">
+        <v>73</v>
+      </c>
+      <c r="O568">
+        <v>73</v>
+      </c>
+      <c r="P568">
+        <v>73</v>
+      </c>
+      <c r="Q568">
+        <v>73</v>
+      </c>
+      <c r="R568">
+        <v>73</v>
+      </c>
+      <c r="S568">
+        <v>73</v>
+      </c>
+      <c r="T568">
+        <v>73</v>
+      </c>
+      <c r="U568">
+        <v>73</v>
+      </c>
+      <c r="V568">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="569" spans="1:22">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>51</v>
+      </c>
+      <c r="C569" t="s">
+        <v>253</v>
+      </c>
+      <c r="D569">
+        <v>7</v>
+      </c>
+      <c r="E569">
+        <v>7</v>
+      </c>
+      <c r="F569">
+        <v>7</v>
+      </c>
+      <c r="G569">
+        <v>7</v>
+      </c>
+      <c r="H569">
+        <v>7</v>
+      </c>
+      <c r="I569">
+        <v>7</v>
+      </c>
+      <c r="J569">
+        <v>7</v>
+      </c>
+      <c r="K569">
+        <v>7</v>
+      </c>
+      <c r="L569">
+        <v>7</v>
+      </c>
+      <c r="M569">
+        <v>7</v>
+      </c>
+      <c r="N569">
+        <v>7</v>
+      </c>
+      <c r="O569">
+        <v>7</v>
+      </c>
+      <c r="P569">
+        <v>7</v>
+      </c>
+      <c r="Q569">
+        <v>7</v>
+      </c>
+      <c r="R569">
+        <v>7</v>
+      </c>
+      <c r="S569">
+        <v>7</v>
+      </c>
+      <c r="T569">
+        <v>7</v>
+      </c>
+      <c r="U569">
+        <v>7</v>
+      </c>
+      <c r="V569">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="570" spans="1:22">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>51</v>
+      </c>
+      <c r="C570" t="s">
         <v>254</v>
       </c>
-      <c r="D554">
-        <v>2</v>
-      </c>
-      <c r="E554">
-        <v>2</v>
-      </c>
-      <c r="F554">
-        <v>2</v>
-      </c>
-      <c r="G554">
-        <v>2</v>
-      </c>
-      <c r="H554">
-        <v>2</v>
-      </c>
-      <c r="I554">
-        <v>2</v>
-      </c>
-      <c r="J554">
-        <v>2</v>
-      </c>
-      <c r="K554">
-        <v>2</v>
-      </c>
-      <c r="L554">
-        <v>2</v>
-      </c>
-      <c r="M554">
-        <v>2</v>
-      </c>
-      <c r="N554">
-        <v>2</v>
-      </c>
-      <c r="O554">
-        <v>2</v>
-      </c>
-      <c r="P554">
-        <v>2</v>
-      </c>
-      <c r="Q554">
-        <v>2</v>
-      </c>
-      <c r="R554">
-        <v>2</v>
-      </c>
-      <c r="S554">
-        <v>2</v>
-      </c>
-      <c r="T554">
-        <v>2</v>
-      </c>
-      <c r="U554">
-        <v>2</v>
-      </c>
-      <c r="V554">
-        <v>2</v>
+      <c r="D570">
+        <v>67</v>
+      </c>
+      <c r="E570">
+        <v>66</v>
+      </c>
+      <c r="F570">
+        <v>67</v>
+      </c>
+      <c r="G570">
+        <v>67</v>
+      </c>
+      <c r="H570">
+        <v>67</v>
+      </c>
+      <c r="I570">
+        <v>67</v>
+      </c>
+      <c r="J570">
+        <v>67</v>
+      </c>
+      <c r="K570">
+        <v>67</v>
+      </c>
+      <c r="L570">
+        <v>67</v>
+      </c>
+      <c r="M570">
+        <v>67</v>
+      </c>
+      <c r="N570">
+        <v>67</v>
+      </c>
+      <c r="O570">
+        <v>67</v>
+      </c>
+      <c r="P570">
+        <v>67</v>
+      </c>
+      <c r="Q570">
+        <v>67</v>
+      </c>
+      <c r="R570">
+        <v>67</v>
+      </c>
+      <c r="S570">
+        <v>67</v>
+      </c>
+      <c r="T570">
+        <v>67</v>
+      </c>
+      <c r="U570">
+        <v>67</v>
+      </c>
+      <c r="V570">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="571" spans="1:22">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>51</v>
+      </c>
+      <c r="C571" t="s">
+        <v>270</v>
+      </c>
+      <c r="D571">
+        <v>101</v>
+      </c>
+      <c r="E571">
+        <v>101</v>
+      </c>
+      <c r="F571">
+        <v>101</v>
+      </c>
+      <c r="G571">
+        <v>101</v>
+      </c>
+      <c r="H571">
+        <v>101</v>
+      </c>
+      <c r="I571">
+        <v>101</v>
+      </c>
+      <c r="J571">
+        <v>101</v>
+      </c>
+      <c r="K571">
+        <v>101</v>
+      </c>
+      <c r="L571">
+        <v>101</v>
+      </c>
+      <c r="M571">
+        <v>101</v>
+      </c>
+      <c r="N571">
+        <v>101</v>
+      </c>
+      <c r="O571">
+        <v>101</v>
+      </c>
+      <c r="P571">
+        <v>101</v>
+      </c>
+      <c r="Q571">
+        <v>101</v>
+      </c>
+      <c r="R571">
+        <v>101</v>
+      </c>
+      <c r="S571">
+        <v>101</v>
+      </c>
+      <c r="T571">
+        <v>101</v>
+      </c>
+      <c r="U571">
+        <v>101</v>
+      </c>
+      <c r="V571">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="572" spans="1:22">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>51</v>
+      </c>
+      <c r="C572" t="s">
+        <v>255</v>
+      </c>
+      <c r="D572">
+        <v>12</v>
+      </c>
+      <c r="E572">
+        <v>12</v>
+      </c>
+      <c r="F572">
+        <v>12</v>
+      </c>
+      <c r="G572">
+        <v>12</v>
+      </c>
+      <c r="H572">
+        <v>12</v>
+      </c>
+      <c r="I572">
+        <v>12</v>
+      </c>
+      <c r="J572">
+        <v>12</v>
+      </c>
+      <c r="K572">
+        <v>12</v>
+      </c>
+      <c r="L572">
+        <v>12</v>
+      </c>
+      <c r="M572">
+        <v>12</v>
+      </c>
+      <c r="N572">
+        <v>12</v>
+      </c>
+      <c r="O572">
+        <v>12</v>
+      </c>
+      <c r="P572">
+        <v>12</v>
+      </c>
+      <c r="Q572">
+        <v>12</v>
+      </c>
+      <c r="R572">
+        <v>12</v>
+      </c>
+      <c r="S572">
+        <v>12</v>
+      </c>
+      <c r="T572">
+        <v>12</v>
+      </c>
+      <c r="U572">
+        <v>12</v>
+      </c>
+      <c r="V572">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="573" spans="1:22">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>51</v>
+      </c>
+      <c r="C573" t="s">
+        <v>271</v>
+      </c>
+      <c r="D573">
+        <v>13</v>
+      </c>
+      <c r="E573">
+        <v>13</v>
+      </c>
+      <c r="F573">
+        <v>13</v>
+      </c>
+      <c r="G573">
+        <v>13</v>
+      </c>
+      <c r="H573">
+        <v>13</v>
+      </c>
+      <c r="I573">
+        <v>13</v>
+      </c>
+      <c r="J573">
+        <v>13</v>
+      </c>
+      <c r="K573">
+        <v>13</v>
+      </c>
+      <c r="L573">
+        <v>13</v>
+      </c>
+      <c r="M573">
+        <v>13</v>
+      </c>
+      <c r="N573">
+        <v>13</v>
+      </c>
+      <c r="O573">
+        <v>13</v>
+      </c>
+      <c r="P573">
+        <v>13</v>
+      </c>
+      <c r="Q573">
+        <v>13</v>
+      </c>
+      <c r="R573">
+        <v>13</v>
+      </c>
+      <c r="S573">
+        <v>13</v>
+      </c>
+      <c r="T573">
+        <v>13</v>
+      </c>
+      <c r="U573">
+        <v>13</v>
+      </c>
+      <c r="V573">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="574" spans="1:22">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
+        <v>51</v>
+      </c>
+      <c r="C574" t="s">
+        <v>272</v>
+      </c>
+      <c r="D574">
+        <v>5</v>
+      </c>
+      <c r="E574">
+        <v>5</v>
+      </c>
+      <c r="F574">
+        <v>5</v>
+      </c>
+      <c r="G574">
+        <v>5</v>
+      </c>
+      <c r="H574">
+        <v>5</v>
+      </c>
+      <c r="I574">
+        <v>5</v>
+      </c>
+      <c r="J574">
+        <v>5</v>
+      </c>
+      <c r="K574">
+        <v>5</v>
+      </c>
+      <c r="L574">
+        <v>5</v>
+      </c>
+      <c r="M574">
+        <v>5</v>
+      </c>
+      <c r="N574">
+        <v>5</v>
+      </c>
+      <c r="O574">
+        <v>5</v>
+      </c>
+      <c r="P574">
+        <v>5</v>
+      </c>
+      <c r="Q574">
+        <v>5</v>
+      </c>
+      <c r="R574">
+        <v>5</v>
+      </c>
+      <c r="S574">
+        <v>5</v>
+      </c>
+      <c r="T574">
+        <v>5</v>
+      </c>
+      <c r="U574">
+        <v>5</v>
+      </c>
+      <c r="V574">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="575" spans="1:22">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575" t="s">
+        <v>51</v>
+      </c>
+      <c r="C575" t="s">
+        <v>275</v>
+      </c>
+      <c r="D575">
+        <v>5</v>
+      </c>
+      <c r="E575">
+        <v>5</v>
+      </c>
+      <c r="F575">
+        <v>5</v>
+      </c>
+      <c r="G575">
+        <v>5</v>
+      </c>
+      <c r="H575">
+        <v>5</v>
+      </c>
+      <c r="I575">
+        <v>5</v>
+      </c>
+      <c r="J575">
+        <v>5</v>
+      </c>
+      <c r="K575">
+        <v>5</v>
+      </c>
+      <c r="L575">
+        <v>5</v>
+      </c>
+      <c r="M575">
+        <v>5</v>
+      </c>
+      <c r="N575">
+        <v>5</v>
+      </c>
+      <c r="O575">
+        <v>5</v>
+      </c>
+      <c r="P575">
+        <v>5</v>
+      </c>
+      <c r="Q575">
+        <v>5</v>
+      </c>
+      <c r="R575">
+        <v>5</v>
+      </c>
+      <c r="S575">
+        <v>5</v>
+      </c>
+      <c r="T575">
+        <v>5</v>
+      </c>
+      <c r="U575">
+        <v>5</v>
+      </c>
+      <c r="V575">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576" spans="1:22">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576" t="s">
+        <v>51</v>
+      </c>
+      <c r="C576" t="s">
+        <v>256</v>
+      </c>
+      <c r="D576">
+        <v>3</v>
+      </c>
+      <c r="E576">
+        <v>3</v>
+      </c>
+      <c r="F576">
+        <v>3</v>
+      </c>
+      <c r="G576">
+        <v>3</v>
+      </c>
+      <c r="H576">
+        <v>3</v>
+      </c>
+      <c r="I576">
+        <v>3</v>
+      </c>
+      <c r="J576">
+        <v>3</v>
+      </c>
+      <c r="K576">
+        <v>3</v>
+      </c>
+      <c r="L576">
+        <v>3</v>
+      </c>
+      <c r="M576">
+        <v>3</v>
+      </c>
+      <c r="N576">
+        <v>3</v>
+      </c>
+      <c r="O576">
+        <v>3</v>
+      </c>
+      <c r="P576">
+        <v>3</v>
+      </c>
+      <c r="Q576">
+        <v>3</v>
+      </c>
+      <c r="R576">
+        <v>3</v>
+      </c>
+      <c r="S576">
+        <v>3</v>
+      </c>
+      <c r="T576">
+        <v>3</v>
+      </c>
+      <c r="U576">
+        <v>3</v>
+      </c>
+      <c r="V576">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="577" spans="1:22">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577" t="s">
+        <v>51</v>
+      </c>
+      <c r="C577" t="s">
+        <v>258</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
+      </c>
+      <c r="E577">
+        <v>1</v>
+      </c>
+      <c r="F577">
+        <v>1</v>
+      </c>
+      <c r="G577">
+        <v>1</v>
+      </c>
+      <c r="H577">
+        <v>1</v>
+      </c>
+      <c r="I577">
+        <v>1</v>
+      </c>
+      <c r="J577">
+        <v>1</v>
+      </c>
+      <c r="K577">
+        <v>1</v>
+      </c>
+      <c r="L577">
+        <v>1</v>
+      </c>
+      <c r="M577">
+        <v>1</v>
+      </c>
+      <c r="N577">
+        <v>1</v>
+      </c>
+      <c r="O577">
+        <v>1</v>
+      </c>
+      <c r="P577">
+        <v>1</v>
+      </c>
+      <c r="Q577">
+        <v>1</v>
+      </c>
+      <c r="R577">
+        <v>1</v>
+      </c>
+      <c r="S577">
+        <v>1</v>
+      </c>
+      <c r="T577">
+        <v>1</v>
+      </c>
+      <c r="U577">
+        <v>1</v>
+      </c>
+      <c r="V577">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
